--- a/service-system/target/classes/static/报告中表格.xlsx
+++ b/service-system/target/classes/static/报告中表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A0452A1-EF4F-4CA0-924C-AA8E7FF22B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47CF11-A8D3-40F4-A7CC-E28EB87C4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="871" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表3.4.1-1" sheetId="1" r:id="rId1"/>
@@ -2517,31 +2517,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2554,6 +2542,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2634,6 +2634,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2641,15 +2650,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2676,14 +2676,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -3059,8 +3059,8 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3646,7 +3646,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="82" t="s">
         <v>233</v>
       </c>
       <c r="B1" s="66"/>
@@ -3654,13 +3654,13 @@
       <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="83" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="76" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="85" t="s">
         <v>236</v>
       </c>
       <c r="D2" s="55" t="s">
@@ -3669,14 +3669,14 @@
     </row>
     <row r="3" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
     </row>
     <row r="4" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="84" t="s">
         <v>242</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="78" t="s">
         <v>238</v>
       </c>
       <c r="C4" s="58" t="s">
@@ -3684,22 +3684,22 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="58" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="58" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="78" t="s">
         <v>239</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3707,22 +3707,22 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="78" t="s">
         <v>240</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3730,22 +3730,22 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="78" t="s">
         <v>241</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3753,24 +3753,24 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="68"/>
-      <c r="B15" s="79"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="84" t="s">
         <v>245</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="78" t="s">
         <v>243</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -3778,22 +3778,22 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="82" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="78" t="s">
         <v>244</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -3801,24 +3801,24 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
-      <c r="B21" s="79"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3826,22 +3826,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="84" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="80" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3849,24 +3849,24 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="68"/>
-      <c r="B27" s="79"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="80" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3874,22 +3874,22 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="80" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -3897,24 +3897,24 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="68"/>
-      <c r="B33" s="79"/>
+      <c r="B33" s="77"/>
       <c r="C33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="80" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -3922,22 +3922,22 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="76"/>
-      <c r="B37" s="84" t="s">
+      <c r="A37" s="74"/>
+      <c r="B37" s="80" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3945,21 +3945,27 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="80"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="75"/>
+      <c r="B39" s="81"/>
       <c r="C39" s="20" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:B3"/>
@@ -3975,12 +3981,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4176,10 +4176,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C1:D1048576"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4234,6 +4234,222 @@
       <c r="G3" s="12" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="51"/>
+      <c r="G20" s="51"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
+      <c r="F22" s="51"/>
+      <c r="G22" s="51"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="51"/>
+      <c r="G24" s="51"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
+      <c r="F26" s="51"/>
+      <c r="G26" s="51"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4836,16 +5052,16 @@
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -4929,15 +5145,15 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -7302,18 +7518,18 @@
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="112" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -7321,25 +7537,25 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="93"/>
       <c r="D6" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="112" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -7347,25 +7563,25 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="93"/>
       <c r="D9" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="112" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -7373,25 +7589,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="93"/>
       <c r="D12" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="112" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -7399,25 +7615,25 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="93"/>
       <c r="D15" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -7425,25 +7641,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="93"/>
       <c r="D18" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="116"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -7451,25 +7667,25 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="93"/>
       <c r="D21" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="112" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -7477,25 +7693,25 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="93"/>
       <c r="D24" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="116"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -7503,25 +7719,25 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="93"/>
       <c r="D27" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="115" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -7529,15 +7745,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
       <c r="D30" s="41" t="s">
@@ -7545,11 +7761,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="115" t="s">
+      <c r="A31" s="116"/>
+      <c r="B31" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="112" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -7557,25 +7773,25 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="93"/>
       <c r="D33" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="116"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="112" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -7583,25 +7799,25 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="93"/>
       <c r="D36" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="115" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="41" t="s">
@@ -7609,25 +7825,25 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="93"/>
       <c r="D39" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="115" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="41" t="s">
@@ -7635,25 +7851,25 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="93"/>
       <c r="D42" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="116"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="112" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="41" t="s">
@@ -7661,25 +7877,25 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="93"/>
       <c r="D45" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
+      <c r="A46" s="116"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -7687,25 +7903,25 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="113"/>
-      <c r="B48" s="116"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="113"/>
       <c r="C48" s="93"/>
       <c r="D48" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="113"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="115" t="s">
+      <c r="A49" s="116"/>
+      <c r="B49" s="113"/>
+      <c r="C49" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="41" t="s">
@@ -7713,17 +7929,17 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
+      <c r="A50" s="116"/>
+      <c r="B50" s="113"/>
+      <c r="C50" s="113"/>
       <c r="D50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
+      <c r="A51" s="117"/>
+      <c r="B51" s="114"/>
+      <c r="C51" s="114"/>
       <c r="D51" s="43" t="s">
         <v>104</v>
       </c>
@@ -7731,14 +7947,6 @@
     <row r="52" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A51"/>
@@ -7755,6 +7963,14 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8716,8 +8932,8 @@
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="40" t="s">
         <v>121</v>
       </c>
@@ -8726,7 +8942,7 @@
       <c r="A4" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -8736,7 +8952,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="119"/>
-      <c r="B5" s="116"/>
+      <c r="B5" s="113"/>
       <c r="C5" s="41" t="s">
         <v>28</v>
       </c>
@@ -8752,7 +8968,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="119"/>
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="112" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -8762,7 +8978,7 @@
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="119"/>
-      <c r="B8" s="116"/>
+      <c r="B8" s="113"/>
       <c r="C8" s="41" t="s">
         <v>28</v>
       </c>
@@ -8778,7 +8994,7 @@
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="119"/>
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="112" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -8788,7 +9004,7 @@
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="119"/>
-      <c r="B11" s="116"/>
+      <c r="B11" s="113"/>
       <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
@@ -8804,7 +9020,7 @@
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="119"/>
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="112" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -8814,7 +9030,7 @@
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="119"/>
-      <c r="B14" s="116"/>
+      <c r="B14" s="113"/>
       <c r="C14" s="41" t="s">
         <v>28</v>
       </c>
@@ -9861,16 +10077,16 @@
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
       <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -10073,15 +10289,15 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="B3" s="77"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
       <c r="G3" s="110"/>
     </row>
   </sheetData>
@@ -11711,20 +11927,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="74"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="112" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -11733,17 +11949,17 @@
       <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="93"/>
       <c r="D6" s="41" t="s">
         <v>104</v>
@@ -11751,9 +11967,9 @@
       <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="112" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -11762,17 +11978,17 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="93"/>
       <c r="D9" s="41" t="s">
         <v>104</v>
@@ -11780,9 +11996,9 @@
       <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="112" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -11791,17 +12007,17 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="93"/>
       <c r="D12" s="41" t="s">
         <v>104</v>
@@ -11809,9 +12025,9 @@
       <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -11820,17 +12036,17 @@
       <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="93"/>
       <c r="D15" s="41" t="s">
         <v>104</v>
@@ -11838,9 +12054,9 @@
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -11849,17 +12065,17 @@
       <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="93"/>
       <c r="D18" s="41" t="s">
         <v>104</v>
@@ -11867,9 +12083,9 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="112" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -11878,17 +12094,17 @@
       <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="93"/>
       <c r="D21" s="41" t="s">
         <v>104</v>
@@ -11896,9 +12112,9 @@
       <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -11907,17 +12123,17 @@
       <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="93"/>
       <c r="D24" s="41" t="s">
         <v>104</v>
@@ -11925,9 +12141,9 @@
       <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="113"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -11936,25 +12152,25 @@
       <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="114"/>
+      <c r="C27" s="114"/>
       <c r="D27" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
+      <c r="A28" s="113"/>
       <c r="B28" s="92" t="s">
         <v>114</v>
       </c>
@@ -11967,17 +12183,17 @@
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
+      <c r="A30" s="113"/>
+      <c r="B30" s="113"/>
       <c r="C30" s="93"/>
       <c r="D30" s="41" t="s">
         <v>104</v>
@@ -11985,9 +12201,9 @@
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="115" t="s">
+      <c r="A31" s="113"/>
+      <c r="B31" s="113"/>
+      <c r="C31" s="112" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="57" t="s">
@@ -11996,17 +12212,17 @@
       <c r="E31" s="57"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="93"/>
       <c r="D33" s="57" t="s">
         <v>232</v>
@@ -12014,9 +12230,9 @@
       <c r="E33" s="57"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -12025,17 +12241,17 @@
       <c r="E34" s="57"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E35" s="57"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="93"/>
       <c r="D36" s="57" t="s">
         <v>232</v>
@@ -12043,9 +12259,9 @@
       <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="115" t="s">
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="112" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="57" t="s">
@@ -12054,17 +12270,17 @@
       <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E38" s="57"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="93"/>
       <c r="D39" s="57" t="s">
         <v>232</v>
@@ -12072,9 +12288,9 @@
       <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="115" t="s">
+      <c r="A40" s="113"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="112" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="57" t="s">
@@ -12083,17 +12299,17 @@
       <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E41" s="57"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="93"/>
       <c r="D42" s="57" t="s">
         <v>232</v>
@@ -12101,9 +12317,9 @@
       <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="57" t="s">
@@ -12112,17 +12328,17 @@
       <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E44" s="57"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="93"/>
       <c r="D45" s="57" t="s">
         <v>232</v>
@@ -12130,9 +12346,9 @@
       <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="57" t="s">
@@ -12141,18 +12357,18 @@
       <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E47" s="57"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="57" t="s">
         <v>232</v>
       </c>
@@ -12161,13 +12377,6 @@
     <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A48"/>
@@ -12184,6 +12393,13 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12237,19 +12453,19 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="115" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="112" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="112" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -12258,17 +12474,17 @@
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="113"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="116"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="113"/>
       <c r="C6" s="93"/>
       <c r="D6" s="39" t="s">
         <v>104</v>
@@ -12276,9 +12492,9 @@
       <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="113"/>
+      <c r="C7" s="112" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="39" t="s">
@@ -12287,17 +12503,17 @@
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="113"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="116"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="113"/>
       <c r="C9" s="93"/>
       <c r="D9" s="39" t="s">
         <v>104</v>
@@ -12305,9 +12521,9 @@
       <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="112" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -12316,17 +12532,17 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="113"/>
       <c r="C12" s="93"/>
       <c r="D12" s="39" t="s">
         <v>104</v>
@@ -12334,9 +12550,9 @@
       <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="113"/>
+      <c r="C13" s="112" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -12345,17 +12561,17 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="113"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="113"/>
       <c r="C15" s="93"/>
       <c r="D15" s="39" t="s">
         <v>104</v>
@@ -12363,9 +12579,9 @@
       <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="113"/>
+      <c r="C16" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -12374,17 +12590,17 @@
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="113"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="113"/>
       <c r="C18" s="93"/>
       <c r="D18" s="39" t="s">
         <v>104</v>
@@ -12392,9 +12608,9 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="116"/>
+      <c r="B19" s="113"/>
+      <c r="C19" s="112" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="39" t="s">
@@ -12403,17 +12619,17 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="113"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="113"/>
       <c r="C21" s="93"/>
       <c r="D21" s="39" t="s">
         <v>104</v>
@@ -12421,9 +12637,9 @@
       <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="113"/>
+      <c r="C22" s="112" t="s">
         <v>142</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -12432,17 +12648,17 @@
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="113"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="113"/>
       <c r="C24" s="93"/>
       <c r="D24" s="39" t="s">
         <v>104</v>
@@ -12450,9 +12666,9 @@
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="116"/>
+      <c r="B25" s="113"/>
+      <c r="C25" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="39" t="s">
@@ -12461,17 +12677,17 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="113"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="113"/>
       <c r="C27" s="93"/>
       <c r="D27" s="39" t="s">
         <v>104</v>
@@ -12479,9 +12695,9 @@
       <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="115" t="s">
+      <c r="A28" s="116"/>
+      <c r="B28" s="113"/>
+      <c r="C28" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -12490,16 +12706,16 @@
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="113"/>
+      <c r="C29" s="113"/>
       <c r="D29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
+      <c r="A30" s="116"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
       <c r="D30" s="39" t="s">
@@ -12508,11 +12724,11 @@
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="115" t="s">
+      <c r="A31" s="116"/>
+      <c r="B31" s="112" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="112" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="39" t="s">
@@ -12521,17 +12737,17 @@
       <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="116"/>
+      <c r="B32" s="113"/>
+      <c r="C32" s="113"/>
       <c r="D32" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="113"/>
       <c r="C33" s="93"/>
       <c r="D33" s="39" t="s">
         <v>104</v>
@@ -12539,9 +12755,9 @@
       <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="116"/>
+      <c r="B34" s="113"/>
+      <c r="C34" s="112" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="39" t="s">
@@ -12550,17 +12766,17 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="116"/>
+      <c r="B35" s="113"/>
+      <c r="C35" s="113"/>
       <c r="D35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="113"/>
       <c r="C36" s="93"/>
       <c r="D36" s="39" t="s">
         <v>104</v>
@@ -12568,9 +12784,9 @@
       <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="115" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="112" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="39" t="s">
@@ -12579,17 +12795,17 @@
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="116"/>
+      <c r="B38" s="113"/>
+      <c r="C38" s="113"/>
       <c r="D38" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="116"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="113"/>
       <c r="C39" s="93"/>
       <c r="D39" s="39" t="s">
         <v>104</v>
@@ -12597,9 +12813,9 @@
       <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="115" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="113"/>
+      <c r="C40" s="112" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="39" t="s">
@@ -12608,17 +12824,17 @@
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="116"/>
+      <c r="B41" s="113"/>
+      <c r="C41" s="113"/>
       <c r="D41" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="116"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="113"/>
       <c r="C42" s="93"/>
       <c r="D42" s="39" t="s">
         <v>104</v>
@@ -12626,9 +12842,9 @@
       <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="116"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="112" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -12637,17 +12853,17 @@
       <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="116"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
       <c r="D44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="116"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="113"/>
       <c r="C45" s="93"/>
       <c r="D45" s="39" t="s">
         <v>104</v>
@@ -12655,9 +12871,9 @@
       <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
+      <c r="A46" s="116"/>
+      <c r="B46" s="113"/>
+      <c r="C46" s="112" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="39" t="s">
@@ -12666,18 +12882,18 @@
       <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="A47" s="116"/>
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
       <c r="D47" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
+      <c r="A48" s="117"/>
+      <c r="B48" s="114"/>
+      <c r="C48" s="114"/>
       <c r="D48" s="39" t="s">
         <v>104</v>
       </c>
@@ -12686,13 +12902,6 @@
     <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A48"/>
@@ -12709,6 +12918,13 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13360,18 +13576,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
+      <c r="A3" s="126"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
       <c r="D3" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="127" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="127" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13380,24 +13596,24 @@
       <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
+      <c r="A5" s="127"/>
+      <c r="B5" s="127"/>
       <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
+      <c r="A6" s="127"/>
+      <c r="B6" s="127"/>
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128" t="s">
+      <c r="A7" s="127"/>
+      <c r="B7" s="127" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -13406,24 +13622,24 @@
       <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
+      <c r="A8" s="127"/>
+      <c r="B8" s="127"/>
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="128"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="127"/>
+      <c r="B9" s="127"/>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="128"/>
-      <c r="B10" s="128" t="s">
+      <c r="A10" s="127"/>
+      <c r="B10" s="127" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -13432,24 +13648,24 @@
       <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="127"/>
+      <c r="B11" s="127"/>
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="127"/>
+      <c r="B12" s="127"/>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="128"/>
-      <c r="B13" s="128" t="s">
+      <c r="A13" s="127"/>
+      <c r="B13" s="127" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -13458,26 +13674,26 @@
       <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="128"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="127"/>
+      <c r="B14" s="127"/>
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="128"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="127"/>
+      <c r="B15" s="127"/>
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="127" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="127" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -13486,24 +13702,24 @@
       <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="127"/>
+      <c r="B17" s="127"/>
       <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="127"/>
+      <c r="B18" s="127"/>
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="128"/>
-      <c r="B19" s="128" t="s">
+      <c r="A19" s="127"/>
+      <c r="B19" s="127" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -13512,7 +13728,7 @@
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="128"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="129"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
@@ -13520,7 +13736,7 @@
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="128"/>
+      <c r="A21" s="127"/>
       <c r="B21" s="129"/>
       <c r="C21" s="6" t="s">
         <v>29</v>
@@ -13528,8 +13744,8 @@
       <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="128"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="127"/>
+      <c r="B22" s="127" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -13538,23 +13754,23 @@
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="127"/>
+      <c r="B23" s="127"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="127"/>
+      <c r="B24" s="127"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="128" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="130" t="s">
@@ -13566,7 +13782,7 @@
       <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="126"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="130"/>
       <c r="C26" s="6" t="s">
         <v>39</v>
@@ -13574,7 +13790,7 @@
       <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="126"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="130"/>
       <c r="C27" s="6" t="s">
         <v>29</v>
@@ -13582,7 +13798,7 @@
       <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="126"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="130" t="s">
         <v>113</v>
       </c>
@@ -13592,7 +13808,7 @@
       <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="126"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="130"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
@@ -13600,7 +13816,7 @@
       <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="126"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="130"/>
       <c r="C30" s="6" t="s">
         <v>29</v>
@@ -13608,7 +13824,7 @@
       <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="126"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="130" t="s">
         <v>143</v>
       </c>
@@ -13618,7 +13834,7 @@
       <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="126"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="130"/>
       <c r="C32" s="6" t="s">
         <v>28</v>
@@ -13626,7 +13842,7 @@
       <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="126"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="130"/>
       <c r="C33" s="6" t="s">
         <v>29</v>
@@ -13635,11 +13851,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A24"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -13652,6 +13863,11 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A24"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15446,15 +15662,15 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -15463,24 +15679,24 @@
       <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="80" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -15489,24 +15705,24 @@
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="80" t="s">
         <v>160</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -15515,8 +15731,8 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
@@ -15524,17 +15740,17 @@
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="68"/>
-      <c r="B12" s="79"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="73" t="s">
         <v>169</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="80" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -15543,24 +15759,24 @@
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="74"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="74"/>
+      <c r="B16" s="80" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -15569,23 +15785,23 @@
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="128" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="130" t="s">
@@ -15597,7 +15813,7 @@
       <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="126"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="130"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
@@ -15605,7 +15821,7 @@
       <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="126"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="130"/>
       <c r="C21" s="6" t="s">
         <v>151</v>
@@ -15613,7 +15829,7 @@
       <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="126"/>
+      <c r="A22" s="128"/>
       <c r="B22" s="130" t="s">
         <v>107</v>
       </c>
@@ -15623,7 +15839,7 @@
       <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="126"/>
+      <c r="A23" s="128"/>
       <c r="B23" s="130"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
@@ -15631,7 +15847,7 @@
       <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="126"/>
+      <c r="A24" s="128"/>
       <c r="B24" s="130"/>
       <c r="C24" s="6" t="s">
         <v>151</v>
@@ -15639,7 +15855,7 @@
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="126"/>
+      <c r="A25" s="128"/>
       <c r="B25" s="130" t="s">
         <v>108</v>
       </c>
@@ -15649,7 +15865,7 @@
       <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="126"/>
+      <c r="A26" s="128"/>
       <c r="B26" s="130"/>
       <c r="C26" s="6" t="s">
         <v>28</v>
@@ -15657,7 +15873,7 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="126"/>
+      <c r="A27" s="128"/>
       <c r="B27" s="130"/>
       <c r="C27" s="6" t="s">
         <v>151</v>
@@ -15665,7 +15881,7 @@
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="126"/>
+      <c r="A28" s="128"/>
       <c r="B28" s="130" t="s">
         <v>165</v>
       </c>
@@ -15675,7 +15891,7 @@
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="126"/>
+      <c r="A29" s="128"/>
       <c r="B29" s="130"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
@@ -15683,7 +15899,7 @@
       <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="126"/>
+      <c r="A30" s="128"/>
       <c r="B30" s="130"/>
       <c r="C30" s="6" t="s">
         <v>151</v>
@@ -15691,7 +15907,7 @@
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="126"/>
+      <c r="A31" s="128"/>
       <c r="B31" s="130" t="s">
         <v>166</v>
       </c>
@@ -15701,7 +15917,7 @@
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="126"/>
+      <c r="A32" s="128"/>
       <c r="B32" s="130"/>
       <c r="C32" s="6" t="s">
         <v>28</v>
@@ -15709,7 +15925,7 @@
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="126"/>
+      <c r="A33" s="128"/>
       <c r="B33" s="130"/>
       <c r="C33" s="6" t="s">
         <v>151</v>
@@ -15717,7 +15933,7 @@
       <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="126"/>
+      <c r="A34" s="128"/>
       <c r="B34" s="130" t="s">
         <v>109</v>
       </c>
@@ -15727,7 +15943,7 @@
       <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="126"/>
+      <c r="A35" s="128"/>
       <c r="B35" s="130"/>
       <c r="C35" s="6" t="s">
         <v>28</v>
@@ -15735,7 +15951,7 @@
       <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="126"/>
+      <c r="A36" s="128"/>
       <c r="B36" s="130"/>
       <c r="C36" s="6" t="s">
         <v>151</v>
@@ -15743,7 +15959,7 @@
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="126"/>
+      <c r="A37" s="128"/>
       <c r="B37" s="130" t="s">
         <v>143</v>
       </c>
@@ -15753,7 +15969,7 @@
       <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="126"/>
+      <c r="A38" s="128"/>
       <c r="B38" s="130"/>
       <c r="C38" s="6" t="s">
         <v>28</v>
@@ -15761,7 +15977,7 @@
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="126"/>
+      <c r="A39" s="128"/>
       <c r="B39" s="130"/>
       <c r="C39" s="6" t="s">
         <v>151</v>
@@ -15769,7 +15985,7 @@
       <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="126"/>
+      <c r="A40" s="128"/>
       <c r="B40" s="130" t="s">
         <v>112</v>
       </c>
@@ -15779,7 +15995,7 @@
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="126"/>
+      <c r="A41" s="128"/>
       <c r="B41" s="130"/>
       <c r="C41" s="6" t="s">
         <v>28</v>
@@ -15787,7 +16003,7 @@
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="126"/>
+      <c r="A42" s="128"/>
       <c r="B42" s="130"/>
       <c r="C42" s="6" t="s">
         <v>151</v>
@@ -15795,7 +16011,7 @@
       <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="126"/>
+      <c r="A43" s="128"/>
       <c r="B43" s="130" t="s">
         <v>113</v>
       </c>
@@ -15805,7 +16021,7 @@
       <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="126"/>
+      <c r="A44" s="128"/>
       <c r="B44" s="130"/>
       <c r="C44" s="6" t="s">
         <v>28</v>
@@ -15813,7 +16029,7 @@
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="126"/>
+      <c r="A45" s="128"/>
       <c r="B45" s="130"/>
       <c r="C45" s="6" t="s">
         <v>151</v>
@@ -15822,11 +16038,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
@@ -15843,6 +16054,11 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16739,16 +16955,16 @@
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="B3" s="77"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="80" t="s">
         <v>188</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -16758,8 +16974,8 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="74"/>
+      <c r="B5" s="79"/>
       <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
@@ -16767,8 +16983,8 @@
       <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="74"/>
+      <c r="B6" s="77"/>
       <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
@@ -16776,8 +16992,8 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="74"/>
+      <c r="B7" s="80" t="s">
         <v>172</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -16787,8 +17003,8 @@
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="79"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
@@ -16796,8 +17012,8 @@
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="74"/>
+      <c r="B9" s="77"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -16805,8 +17021,8 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="74"/>
+      <c r="B10" s="80" t="s">
         <v>173</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16816,8 +17032,8 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="74"/>
+      <c r="B11" s="79"/>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
@@ -16825,8 +17041,8 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="74"/>
+      <c r="B12" s="77"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
@@ -16834,8 +17050,8 @@
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="74"/>
+      <c r="B13" s="80" t="s">
         <v>189</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -16845,8 +17061,8 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="74"/>
+      <c r="B14" s="79"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
@@ -16855,7 +17071,7 @@
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="68"/>
-      <c r="B15" s="79"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
@@ -16863,10 +17079,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="80" t="s">
         <v>179</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -16876,8 +17092,8 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="74"/>
+      <c r="B17" s="79"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
@@ -16885,8 +17101,8 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="74"/>
+      <c r="B18" s="77"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
@@ -16894,8 +17110,8 @@
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="74"/>
+      <c r="B19" s="80" t="s">
         <v>180</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -16905,8 +17121,8 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="74"/>
+      <c r="B20" s="79"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
@@ -16915,7 +17131,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
-      <c r="B21" s="79"/>
+      <c r="B21" s="77"/>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
@@ -16923,10 +17139,10 @@
       <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="73" t="s">
         <v>190</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="80" t="s">
         <v>191</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -16936,8 +17152,8 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="74"/>
+      <c r="B23" s="79"/>
       <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
@@ -16945,8 +17161,8 @@
       <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="77"/>
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
@@ -16954,8 +17170,8 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="84" t="s">
+      <c r="A25" s="74"/>
+      <c r="B25" s="80" t="s">
         <v>183</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -16965,8 +17181,8 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="74"/>
+      <c r="B26" s="79"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
@@ -16974,8 +17190,8 @@
       <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="76"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="77"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
@@ -16983,8 +17199,8 @@
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="76"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="74"/>
+      <c r="B28" s="80" t="s">
         <v>184</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -16994,8 +17210,8 @@
       <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="74"/>
+      <c r="B29" s="79"/>
       <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
@@ -17003,8 +17219,8 @@
       <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="74"/>
+      <c r="B30" s="77"/>
       <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
@@ -17012,8 +17228,8 @@
       <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="74"/>
+      <c r="B31" s="80" t="s">
         <v>185</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -17023,8 +17239,8 @@
       <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="74"/>
+      <c r="B32" s="79"/>
       <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
@@ -17032,8 +17248,8 @@
       <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="74"/>
+      <c r="B33" s="81"/>
       <c r="C33" s="20" t="s">
         <v>29</v>
       </c>
@@ -17041,10 +17257,10 @@
       <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="73" t="s">
         <v>192</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="80" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -17054,8 +17270,8 @@
       <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="74"/>
+      <c r="B35" s="79"/>
       <c r="C35" s="18" t="s">
         <v>39</v>
       </c>
@@ -17063,8 +17279,8 @@
       <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="74"/>
+      <c r="B36" s="77"/>
       <c r="C36" s="18" t="s">
         <v>29</v>
       </c>
@@ -17072,8 +17288,8 @@
       <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="76"/>
-      <c r="B37" s="84" t="s">
+      <c r="A37" s="74"/>
+      <c r="B37" s="80" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -17083,8 +17299,8 @@
       <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="74"/>
+      <c r="B38" s="79"/>
       <c r="C38" s="18" t="s">
         <v>28</v>
       </c>
@@ -17093,7 +17309,7 @@
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="68"/>
-      <c r="B39" s="79"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="18" t="s">
         <v>29</v>
       </c>
@@ -17108,6 +17324,12 @@
     <protectedRange sqref="D3:E39" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -17122,12 +17344,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17796,7 +18012,7 @@
   </sheetPr>
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -18219,18 +18435,18 @@
       <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127" t="s">
         <v>208</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">

--- a/service-system/target/classes/static/报告中表格.xlsx
+++ b/service-system/target/classes/static/报告中表格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B47CF11-A8D3-40F4-A7CC-E28EB87C4117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60678A42-9E5B-4307-A825-EFBB0C45B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="871" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="871" firstSheet="35" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表3.4.1-1" sheetId="1" r:id="rId1"/>
@@ -61,26 +61,27 @@
     <sheet name="表4.1.3-4" sheetId="12" r:id="rId46"/>
     <sheet name="表4.1.4-1" sheetId="16" r:id="rId47"/>
     <sheet name="表4.1.4-2" sheetId="17" r:id="rId48"/>
-    <sheet name="表4.1.4-3" sheetId="54" r:id="rId49"/>
-    <sheet name="表4.1.4-4" sheetId="18" r:id="rId50"/>
-    <sheet name="表4.1.5-1" sheetId="55" r:id="rId51"/>
-    <sheet name="表4.1.5-2" sheetId="56" r:id="rId52"/>
-    <sheet name="表4.1.5-3" sheetId="57" r:id="rId53"/>
-    <sheet name="表4.1.5-4" sheetId="58" r:id="rId54"/>
-    <sheet name="表4.1.5-5" sheetId="59" r:id="rId55"/>
-    <sheet name="表4.1.6-1" sheetId="62" r:id="rId56"/>
-    <sheet name="表4.1.6-2" sheetId="63" r:id="rId57"/>
-    <sheet name="表4.1.6-3" sheetId="64" r:id="rId58"/>
-    <sheet name="表5.1.1-1" sheetId="19" r:id="rId59"/>
-    <sheet name="表5.1.2-1" sheetId="20" r:id="rId60"/>
-    <sheet name="表5.1.3-1" sheetId="21" r:id="rId61"/>
-    <sheet name="表5.2-1" sheetId="22" r:id="rId62"/>
-    <sheet name="表5.3-1" sheetId="23" r:id="rId63"/>
-    <sheet name="Sheet1" sheetId="25" state="hidden" r:id="rId64"/>
+    <sheet name="表4.1.4-3-no" sheetId="54" state="hidden" r:id="rId49"/>
+    <sheet name="表4.1.4-3" sheetId="71" r:id="rId50"/>
+    <sheet name="表4.1.4-4" sheetId="18" r:id="rId51"/>
+    <sheet name="表4.1.5-1" sheetId="55" r:id="rId52"/>
+    <sheet name="表4.1.5-2" sheetId="56" r:id="rId53"/>
+    <sheet name="表4.1.5-3" sheetId="57" r:id="rId54"/>
+    <sheet name="表4.1.5-4" sheetId="58" r:id="rId55"/>
+    <sheet name="表4.1.5-5" sheetId="59" r:id="rId56"/>
+    <sheet name="表4.1.6-1" sheetId="62" r:id="rId57"/>
+    <sheet name="表4.1.6-2" sheetId="63" r:id="rId58"/>
+    <sheet name="表4.1.6-3" sheetId="64" r:id="rId59"/>
+    <sheet name="表5.1.1-1" sheetId="19" r:id="rId60"/>
+    <sheet name="表5.1.2-1" sheetId="20" r:id="rId61"/>
+    <sheet name="表5.1.3-1" sheetId="21" r:id="rId62"/>
+    <sheet name="表5.2-1" sheetId="22" r:id="rId63"/>
+    <sheet name="表5.3-1" sheetId="23" r:id="rId64"/>
+    <sheet name="Sheet1" sheetId="25" state="hidden" r:id="rId65"/>
   </sheets>
   <definedNames>
     <definedName name="_Toc151314955" localSheetId="45">'表4.1.3-4'!#REF!</definedName>
-    <definedName name="OLE_LINK1" localSheetId="52">'表4.1.5-3'!$A$2</definedName>
+    <definedName name="OLE_LINK1" localSheetId="53">'表4.1.5-3'!$A$2</definedName>
     <definedName name="OLE_LINK4" localSheetId="1">'表3.4.2-1'!$A$2</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'表3.4.1-1'!$A$1:$J$3</definedName>
   </definedNames>
@@ -89,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1077" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="264">
   <si>
     <t>表3.4.1-1 涵洞、支挡工程抽检统计表</t>
   </si>
@@ -995,9 +996,6 @@
   </si>
   <si>
     <t>净空</t>
-  </si>
-  <si>
-    <t>表4.1.4-3隧道路面检测结果汇总表</t>
   </si>
   <si>
     <t>砼路面面强度</t>
@@ -1526,6 +1524,82 @@
     <t>排水工程</t>
     <phoneticPr fontId="19" type="noConversion"/>
   </si>
+  <si>
+    <t>表4.1.4-3隧道路面检测结果汇总表</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青路面压实度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青路面压实度</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青路面车辙</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青路面车辙</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青路面渗水系数</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>沥青路面渗水系数</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>砼路面面强度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>砼路面面强度</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>砼路面相邻板高差</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>砼路面相邻板高差</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>平整度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>平整度</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗滑</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗滑</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>厚度</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坡</t>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>横坡</t>
+    <phoneticPr fontId="24" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -1535,7 +1609,7 @@
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1698,6 +1772,21 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1707,7 +1796,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -2288,6 +2377,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2296,7 +2400,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="150">
+  <cellXfs count="157">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2517,19 +2621,31 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2542,18 +2658,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2634,6 +2738,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2641,15 +2754,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2676,14 +2780,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2747,6 +2851,27 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3059,7 +3184,7 @@
   </sheetPr>
   <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -3646,179 +3771,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>233</v>
+      <c r="A1" s="73" t="s">
+        <v>232</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
       <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83" t="s">
+      <c r="A2" s="74" t="s">
+        <v>233</v>
+      </c>
+      <c r="B2" s="81" t="s">
         <v>234</v>
       </c>
-      <c r="B2" s="76" t="s">
+      <c r="C2" s="78" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="85" t="s">
-        <v>236</v>
-      </c>
       <c r="D2" s="55" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
     </row>
     <row r="4" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="84" t="s">
-        <v>242</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="75" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="82" t="s">
+        <v>237</v>
+      </c>
+      <c r="C4" s="58" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="76"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="58" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="76"/>
+      <c r="B6" s="79"/>
+      <c r="C6" s="58" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="76"/>
+      <c r="B7" s="82" t="s">
         <v>238</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="58" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="58" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="78" t="s">
-        <v>239</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="78" t="s">
-        <v>240</v>
+      <c r="A10" s="76"/>
+      <c r="B10" s="82" t="s">
+        <v>239</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="78" t="s">
-        <v>241</v>
+      <c r="A13" s="76"/>
+      <c r="B13" s="82" t="s">
+        <v>240</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="68"/>
-      <c r="B15" s="77"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="84" t="s">
-        <v>245</v>
-      </c>
-      <c r="B16" s="78" t="s">
-        <v>243</v>
+      <c r="A16" s="75" t="s">
+        <v>244</v>
+      </c>
+      <c r="B16" s="82" t="s">
+        <v>242</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="78" t="s">
-        <v>244</v>
+      <c r="A19" s="76"/>
+      <c r="B19" s="82" t="s">
+        <v>243</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
-      <c r="B21" s="77"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="77" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="80" t="s">
+      <c r="B22" s="84" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3826,22 +3951,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
-      <c r="B25" s="80" t="s">
+      <c r="A25" s="76"/>
+      <c r="B25" s="84" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3849,24 +3974,24 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="68"/>
-      <c r="B27" s="77"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="73" t="s">
+      <c r="A28" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="80" t="s">
+      <c r="B28" s="84" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3874,22 +3999,22 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="80" t="s">
+      <c r="A31" s="76"/>
+      <c r="B31" s="84" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -3897,24 +4022,24 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="68"/>
-      <c r="B33" s="77"/>
+      <c r="B33" s="79"/>
       <c r="C33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73" t="s">
+      <c r="A34" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="80" t="s">
+      <c r="B34" s="84" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -3922,22 +4047,22 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="74"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="84" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -3945,27 +4070,21 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="75"/>
-      <c r="B39" s="81"/>
+      <c r="A39" s="80"/>
+      <c r="B39" s="85"/>
       <c r="C39" s="20" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:B3"/>
@@ -3981,6 +4100,12 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5052,16 +5177,16 @@
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -5145,15 +5270,15 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="110"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -7513,23 +7638,23 @@
         <v>44</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="115" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -7537,25 +7662,25 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="113"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="93"/>
       <c r="D6" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="116"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="112" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="115" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -7563,25 +7688,25 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="93"/>
       <c r="D9" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="112" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="115" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -7589,25 +7714,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="93"/>
       <c r="D12" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="112" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="115" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -7615,25 +7740,25 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="93"/>
       <c r="D15" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="112" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="115" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -7641,25 +7766,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="113"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="93"/>
       <c r="D18" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="112" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="115" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -7667,25 +7792,25 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="116"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="93"/>
       <c r="D21" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="112" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="115" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -7693,25 +7818,25 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="93"/>
       <c r="D24" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="116"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="112" t="s">
+      <c r="A25" s="113"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="115" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -7719,25 +7844,25 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
-      <c r="B27" s="113"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="93"/>
       <c r="D27" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="112" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="115" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -7745,15 +7870,15 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
       <c r="D30" s="41" t="s">
@@ -7761,11 +7886,11 @@
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="112" t="s">
+      <c r="A31" s="113"/>
+      <c r="B31" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="115" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -7773,25 +7898,25 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="93"/>
       <c r="D33" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="112" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="115" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -7799,25 +7924,25 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116"/>
-      <c r="B36" s="113"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="93"/>
       <c r="D36" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="116"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="112" t="s">
+      <c r="A37" s="113"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="115" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="41" t="s">
@@ -7825,25 +7950,25 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="116"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="116"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="93"/>
       <c r="D39" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="112" t="s">
+      <c r="A40" s="113"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="115" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="41" t="s">
@@ -7851,25 +7976,25 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="116"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="116"/>
-      <c r="B42" s="113"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="93"/>
       <c r="D42" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="116"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="112" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="115" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="41" t="s">
@@ -7877,25 +8002,25 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="116"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
       <c r="D44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="116"/>
-      <c r="B45" s="113"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="93"/>
       <c r="D45" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="112" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="115" t="s">
         <v>112</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -7903,25 +8028,25 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="116"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
       <c r="D47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="116"/>
-      <c r="B48" s="113"/>
+      <c r="A48" s="113"/>
+      <c r="B48" s="116"/>
       <c r="C48" s="93"/>
       <c r="D48" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="116"/>
-      <c r="B49" s="113"/>
-      <c r="C49" s="112" t="s">
+      <c r="A49" s="113"/>
+      <c r="B49" s="116"/>
+      <c r="C49" s="115" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="41" t="s">
@@ -7929,17 +8054,17 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="116"/>
-      <c r="B50" s="113"/>
-      <c r="C50" s="113"/>
+      <c r="A50" s="113"/>
+      <c r="B50" s="116"/>
+      <c r="C50" s="116"/>
       <c r="D50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="117"/>
-      <c r="B51" s="114"/>
-      <c r="C51" s="114"/>
+      <c r="A51" s="114"/>
+      <c r="B51" s="117"/>
+      <c r="C51" s="117"/>
       <c r="D51" s="43" t="s">
         <v>104</v>
       </c>
@@ -7947,6 +8072,14 @@
     <row r="52" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A51"/>
@@ -7963,14 +8096,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8932,8 +9057,8 @@
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="40" t="s">
         <v>121</v>
       </c>
@@ -8942,7 +9067,7 @@
       <c r="A4" s="118" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -8952,7 +9077,7 @@
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="119"/>
-      <c r="B5" s="113"/>
+      <c r="B5" s="116"/>
       <c r="C5" s="41" t="s">
         <v>28</v>
       </c>
@@ -8968,7 +9093,7 @@
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="119"/>
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="115" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -8978,7 +9103,7 @@
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="119"/>
-      <c r="B8" s="113"/>
+      <c r="B8" s="116"/>
       <c r="C8" s="41" t="s">
         <v>28</v>
       </c>
@@ -8994,7 +9119,7 @@
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="119"/>
-      <c r="B10" s="112" t="s">
+      <c r="B10" s="115" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -9004,7 +9129,7 @@
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="119"/>
-      <c r="B11" s="113"/>
+      <c r="B11" s="116"/>
       <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
@@ -9020,7 +9145,7 @@
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="119"/>
-      <c r="B13" s="112" t="s">
+      <c r="B13" s="115" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -9030,7 +9155,7 @@
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="119"/>
-      <c r="B14" s="113"/>
+      <c r="B14" s="116"/>
       <c r="C14" s="41" t="s">
         <v>28</v>
       </c>
@@ -10077,16 +10202,16 @@
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
       <c r="H3" s="110"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
@@ -10289,15 +10414,15 @@
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
+      <c r="B3" s="79"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="110"/>
     </row>
   </sheetData>
@@ -11927,20 +12052,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="74"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="A3" s="76"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="115" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="115" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -11949,17 +12074,17 @@
       <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
+      <c r="A5" s="116"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="113"/>
+      <c r="A6" s="116"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="93"/>
       <c r="D6" s="41" t="s">
         <v>104</v>
@@ -11967,9 +12092,9 @@
       <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="112" t="s">
+      <c r="A7" s="116"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="115" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -11978,17 +12103,17 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="116"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="116"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="93"/>
       <c r="D9" s="41" t="s">
         <v>104</v>
@@ -11996,9 +12121,9 @@
       <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="112" t="s">
+      <c r="A10" s="116"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="115" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -12007,17 +12132,17 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="116"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="116"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="93"/>
       <c r="D12" s="41" t="s">
         <v>104</v>
@@ -12025,9 +12150,9 @@
       <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="112" t="s">
+      <c r="A13" s="116"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="115" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -12036,17 +12161,17 @@
       <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="116"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="116"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="93"/>
       <c r="D15" s="41" t="s">
         <v>104</v>
@@ -12054,9 +12179,9 @@
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="112" t="s">
+      <c r="A16" s="116"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="115" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -12065,17 +12190,17 @@
       <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="116"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="113"/>
+      <c r="A18" s="116"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="93"/>
       <c r="D18" s="41" t="s">
         <v>104</v>
@@ -12083,9 +12208,9 @@
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="112" t="s">
+      <c r="A19" s="116"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="115" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -12094,17 +12219,17 @@
       <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="116"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="116"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="93"/>
       <c r="D21" s="41" t="s">
         <v>104</v>
@@ -12112,9 +12237,9 @@
       <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="112" t="s">
+      <c r="A22" s="116"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="115" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -12123,17 +12248,17 @@
       <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="116"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="116"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="93"/>
       <c r="D24" s="41" t="s">
         <v>104</v>
@@ -12141,9 +12266,9 @@
       <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="112" t="s">
+      <c r="A25" s="116"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="115" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -12152,25 +12277,25 @@
       <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="116"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="114"/>
-      <c r="C27" s="114"/>
+      <c r="A27" s="116"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
       <c r="D27" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
+      <c r="A28" s="116"/>
       <c r="B28" s="92" t="s">
         <v>114</v>
       </c>
@@ -12178,22 +12303,22 @@
         <v>115</v>
       </c>
       <c r="D28" s="57" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="116"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="113"/>
+      <c r="A30" s="116"/>
+      <c r="B30" s="116"/>
       <c r="C30" s="93"/>
       <c r="D30" s="41" t="s">
         <v>104</v>
@@ -12201,182 +12326,189 @@
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="113"/>
-      <c r="C31" s="112" t="s">
+      <c r="A31" s="116"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="115" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E31" s="57"/>
+    </row>
+    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="116"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E31" s="57"/>
-    </row>
-    <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
-      <c r="D32" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="116"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="93"/>
       <c r="D33" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E33" s="57"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="112" t="s">
+      <c r="A34" s="116"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="115" t="s">
         <v>109</v>
       </c>
       <c r="D34" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E34" s="57"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="116"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E34" s="57"/>
-    </row>
-    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
-      <c r="D35" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="E35" s="57"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="113"/>
+      <c r="A36" s="116"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="93"/>
       <c r="D36" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="112" t="s">
+      <c r="A37" s="116"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="115" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E37" s="57"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="116"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E37" s="57"/>
-    </row>
-    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="E38" s="57"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="116"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="93"/>
       <c r="D39" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="112" t="s">
+      <c r="A40" s="116"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="115" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E40" s="57"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="116"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E40" s="57"/>
-    </row>
-    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
-      <c r="D41" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="E41" s="57"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="113"/>
+      <c r="A42" s="116"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="93"/>
       <c r="D42" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="112" t="s">
+      <c r="A43" s="116"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="115" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E43" s="57"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="116"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E43" s="57"/>
-    </row>
-    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="57" t="s">
-        <v>231</v>
-      </c>
       <c r="E44" s="57"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="113"/>
+      <c r="A45" s="116"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="93"/>
       <c r="D45" s="57" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="112" t="s">
+      <c r="A46" s="116"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="115" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="57" t="s">
+        <v>229</v>
+      </c>
+      <c r="E46" s="57"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="116"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="57" t="s">
         <v>230</v>
       </c>
-      <c r="E46" s="57"/>
-    </row>
-    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="57" t="s">
+      <c r="E47" s="57"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="117"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
+      <c r="D48" s="57" t="s">
         <v>231</v>
-      </c>
-      <c r="E47" s="57"/>
-    </row>
-    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
-      <c r="D48" s="57" t="s">
-        <v>232</v>
       </c>
       <c r="E48" s="57"/>
     </row>
     <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A48"/>
@@ -12393,13 +12525,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12413,7 +12538,7 @@
   </sheetPr>
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
@@ -12453,19 +12578,19 @@
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="112" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="115" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="112" t="s">
+      <c r="C4" s="115" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -12474,17 +12599,17 @@
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="113"/>
-      <c r="C5" s="113"/>
+      <c r="A5" s="113"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
       <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="113"/>
+      <c r="A6" s="113"/>
+      <c r="B6" s="116"/>
       <c r="C6" s="93"/>
       <c r="D6" s="39" t="s">
         <v>104</v>
@@ -12492,9 +12617,9 @@
       <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="116"/>
-      <c r="B7" s="113"/>
-      <c r="C7" s="112" t="s">
+      <c r="A7" s="113"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="115" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="39" t="s">
@@ -12503,17 +12628,17 @@
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="113"/>
-      <c r="C8" s="113"/>
+      <c r="A8" s="113"/>
+      <c r="B8" s="116"/>
+      <c r="C8" s="116"/>
       <c r="D8" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116"/>
-      <c r="B9" s="113"/>
+      <c r="A9" s="113"/>
+      <c r="B9" s="116"/>
       <c r="C9" s="93"/>
       <c r="D9" s="39" t="s">
         <v>104</v>
@@ -12521,9 +12646,9 @@
       <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="112" t="s">
+      <c r="A10" s="113"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="115" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -12532,17 +12657,17 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
-      <c r="B11" s="113"/>
-      <c r="C11" s="113"/>
+      <c r="A11" s="113"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
       <c r="D11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
-      <c r="B12" s="113"/>
+      <c r="A12" s="113"/>
+      <c r="B12" s="116"/>
       <c r="C12" s="93"/>
       <c r="D12" s="39" t="s">
         <v>104</v>
@@ -12550,9 +12675,9 @@
       <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
-      <c r="B13" s="113"/>
-      <c r="C13" s="112" t="s">
+      <c r="A13" s="113"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="115" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -12561,17 +12686,17 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
-      <c r="B14" s="113"/>
-      <c r="C14" s="113"/>
+      <c r="A14" s="113"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="116"/>
       <c r="D14" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
-      <c r="B15" s="113"/>
+      <c r="A15" s="113"/>
+      <c r="B15" s="116"/>
       <c r="C15" s="93"/>
       <c r="D15" s="39" t="s">
         <v>104</v>
@@ -12579,9 +12704,9 @@
       <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="113"/>
-      <c r="C16" s="112" t="s">
+      <c r="A16" s="113"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="115" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -12590,17 +12715,17 @@
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="113"/>
-      <c r="C17" s="113"/>
+      <c r="A17" s="113"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="116"/>
       <c r="D17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="113"/>
+      <c r="A18" s="113"/>
+      <c r="B18" s="116"/>
       <c r="C18" s="93"/>
       <c r="D18" s="39" t="s">
         <v>104</v>
@@ -12608,9 +12733,9 @@
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116"/>
-      <c r="B19" s="113"/>
-      <c r="C19" s="112" t="s">
+      <c r="A19" s="113"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="115" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="39" t="s">
@@ -12619,17 +12744,17 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="116"/>
-      <c r="B20" s="113"/>
-      <c r="C20" s="113"/>
+      <c r="A20" s="113"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="116"/>
       <c r="D20" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="113"/>
+      <c r="A21" s="113"/>
+      <c r="B21" s="116"/>
       <c r="C21" s="93"/>
       <c r="D21" s="39" t="s">
         <v>104</v>
@@ -12637,9 +12762,9 @@
       <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="113"/>
-      <c r="C22" s="112" t="s">
+      <c r="A22" s="113"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="115" t="s">
         <v>142</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -12648,17 +12773,17 @@
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="113"/>
-      <c r="C23" s="113"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="116"/>
       <c r="D23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="113"/>
+      <c r="A24" s="113"/>
+      <c r="B24" s="116"/>
       <c r="C24" s="93"/>
       <c r="D24" s="39" t="s">
         <v>104</v>
@@ -12666,9 +12791,9 @@
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="116"/>
-      <c r="B25" s="113"/>
-      <c r="C25" s="112" t="s">
+      <c r="A25" s="113"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="115" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="39" t="s">
@@ -12677,17 +12802,17 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
-      <c r="B26" s="113"/>
-      <c r="C26" s="113"/>
+      <c r="A26" s="113"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="116"/>
       <c r="D26" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
-      <c r="B27" s="113"/>
+      <c r="A27" s="113"/>
+      <c r="B27" s="116"/>
       <c r="C27" s="93"/>
       <c r="D27" s="39" t="s">
         <v>104</v>
@@ -12695,9 +12820,9 @@
       <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
-      <c r="B28" s="113"/>
-      <c r="C28" s="112" t="s">
+      <c r="A28" s="113"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="115" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -12706,16 +12831,16 @@
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="113"/>
-      <c r="C29" s="113"/>
+      <c r="A29" s="113"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="116"/>
       <c r="D29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
+      <c r="A30" s="113"/>
       <c r="B30" s="93"/>
       <c r="C30" s="93"/>
       <c r="D30" s="39" t="s">
@@ -12724,11 +12849,11 @@
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="112" t="s">
+      <c r="A31" s="113"/>
+      <c r="B31" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="112" t="s">
+      <c r="C31" s="115" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="39" t="s">
@@ -12737,17 +12862,17 @@
       <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="113"/>
-      <c r="C32" s="113"/>
+      <c r="A32" s="113"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="116"/>
       <c r="D32" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="113"/>
+      <c r="A33" s="113"/>
+      <c r="B33" s="116"/>
       <c r="C33" s="93"/>
       <c r="D33" s="39" t="s">
         <v>104</v>
@@ -12755,9 +12880,9 @@
       <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
-      <c r="B34" s="113"/>
-      <c r="C34" s="112" t="s">
+      <c r="A34" s="113"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="115" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="39" t="s">
@@ -12766,17 +12891,17 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="113"/>
-      <c r="C35" s="113"/>
+      <c r="A35" s="113"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="116"/>
       <c r="D35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116"/>
-      <c r="B36" s="113"/>
+      <c r="A36" s="113"/>
+      <c r="B36" s="116"/>
       <c r="C36" s="93"/>
       <c r="D36" s="39" t="s">
         <v>104</v>
@@ -12784,9 +12909,9 @@
       <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="116"/>
-      <c r="B37" s="113"/>
-      <c r="C37" s="112" t="s">
+      <c r="A37" s="113"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="115" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="39" t="s">
@@ -12795,17 +12920,17 @@
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="116"/>
-      <c r="B38" s="113"/>
-      <c r="C38" s="113"/>
+      <c r="A38" s="113"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="116"/>
       <c r="D38" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="116"/>
-      <c r="B39" s="113"/>
+      <c r="A39" s="113"/>
+      <c r="B39" s="116"/>
       <c r="C39" s="93"/>
       <c r="D39" s="39" t="s">
         <v>104</v>
@@ -12813,9 +12938,9 @@
       <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116"/>
-      <c r="B40" s="113"/>
-      <c r="C40" s="112" t="s">
+      <c r="A40" s="113"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="115" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="39" t="s">
@@ -12824,17 +12949,17 @@
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="116"/>
-      <c r="B41" s="113"/>
-      <c r="C41" s="113"/>
+      <c r="A41" s="113"/>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
       <c r="D41" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="116"/>
-      <c r="B42" s="113"/>
+      <c r="A42" s="113"/>
+      <c r="B42" s="116"/>
       <c r="C42" s="93"/>
       <c r="D42" s="39" t="s">
         <v>104</v>
@@ -12842,9 +12967,9 @@
       <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="116"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="112" t="s">
+      <c r="A43" s="113"/>
+      <c r="B43" s="116"/>
+      <c r="C43" s="115" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -12853,17 +12978,17 @@
       <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="116"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
+      <c r="A44" s="113"/>
+      <c r="B44" s="116"/>
+      <c r="C44" s="116"/>
       <c r="D44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="116"/>
-      <c r="B45" s="113"/>
+      <c r="A45" s="113"/>
+      <c r="B45" s="116"/>
       <c r="C45" s="93"/>
       <c r="D45" s="39" t="s">
         <v>104</v>
@@ -12871,9 +12996,9 @@
       <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116"/>
-      <c r="B46" s="113"/>
-      <c r="C46" s="112" t="s">
+      <c r="A46" s="113"/>
+      <c r="B46" s="116"/>
+      <c r="C46" s="115" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="39" t="s">
@@ -12882,18 +13007,18 @@
       <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="116"/>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
+      <c r="A47" s="113"/>
+      <c r="B47" s="116"/>
+      <c r="C47" s="116"/>
       <c r="D47" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117"/>
-      <c r="B48" s="114"/>
-      <c r="C48" s="114"/>
+      <c r="A48" s="114"/>
+      <c r="B48" s="117"/>
+      <c r="C48" s="117"/>
       <c r="D48" s="39" t="s">
         <v>104</v>
       </c>
@@ -12902,6 +13027,13 @@
     <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A48"/>
@@ -12918,13 +13050,6 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13543,7 +13668,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13565,8 +13690,8 @@
       <c r="A2" s="72" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="72" t="s">
-        <v>43</v>
+      <c r="B2" s="151" t="s">
+        <v>234</v>
       </c>
       <c r="C2" s="72" t="s">
         <v>44</v>
@@ -13576,18 +13701,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="126"/>
-      <c r="B3" s="126"/>
-      <c r="C3" s="126"/>
+      <c r="A3" s="127"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
       <c r="D3" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="128" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="127" t="s">
+      <c r="B4" s="128" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13596,24 +13721,24 @@
       <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="127"/>
-      <c r="B5" s="127"/>
+      <c r="A5" s="128"/>
+      <c r="B5" s="128"/>
       <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="127"/>
-      <c r="B6" s="127"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="128"/>
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="127"/>
-      <c r="B7" s="127" t="s">
+      <c r="A7" s="128"/>
+      <c r="B7" s="128" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -13622,24 +13747,24 @@
       <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="127"/>
-      <c r="B8" s="127"/>
+      <c r="A8" s="128"/>
+      <c r="B8" s="128"/>
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="127"/>
-      <c r="B9" s="127"/>
+      <c r="A9" s="128"/>
+      <c r="B9" s="128"/>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="127"/>
-      <c r="B10" s="127" t="s">
+      <c r="A10" s="128"/>
+      <c r="B10" s="128" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -13648,24 +13773,24 @@
       <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="127"/>
-      <c r="B11" s="127"/>
+      <c r="A11" s="128"/>
+      <c r="B11" s="128"/>
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="127"/>
-      <c r="B12" s="127"/>
+      <c r="A12" s="128"/>
+      <c r="B12" s="128"/>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="127"/>
-      <c r="B13" s="127" t="s">
+      <c r="A13" s="128"/>
+      <c r="B13" s="128" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -13674,26 +13799,26 @@
       <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="127"/>
-      <c r="B14" s="127"/>
+      <c r="A14" s="128"/>
+      <c r="B14" s="128"/>
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="127"/>
-      <c r="B15" s="127"/>
+      <c r="A15" s="128"/>
+      <c r="B15" s="128"/>
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="127" t="s">
+      <c r="A16" s="128" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="127" t="s">
+      <c r="B16" s="128" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -13702,24 +13827,24 @@
       <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="127"/>
-      <c r="B17" s="127"/>
+      <c r="A17" s="128"/>
+      <c r="B17" s="128"/>
       <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="127"/>
-      <c r="B18" s="127"/>
+      <c r="A18" s="128"/>
+      <c r="B18" s="128"/>
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="127"/>
-      <c r="B19" s="127" t="s">
+      <c r="A19" s="128"/>
+      <c r="B19" s="128" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -13728,7 +13853,7 @@
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="127"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="129"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
@@ -13736,7 +13861,7 @@
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="127"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="129"/>
       <c r="C21" s="6" t="s">
         <v>29</v>
@@ -13744,8 +13869,8 @@
       <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="127"/>
-      <c r="B22" s="127" t="s">
+      <c r="A22" s="128"/>
+      <c r="B22" s="128" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -13754,23 +13879,23 @@
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="127"/>
-      <c r="B23" s="127"/>
+      <c r="A23" s="128"/>
+      <c r="B23" s="128"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="127"/>
-      <c r="B24" s="127"/>
+      <c r="A24" s="128"/>
+      <c r="B24" s="128"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="128" t="s">
+      <c r="A25" s="126" t="s">
         <v>122</v>
       </c>
       <c r="B25" s="130" t="s">
@@ -13782,7 +13907,7 @@
       <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="128"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="130"/>
       <c r="C26" s="6" t="s">
         <v>39</v>
@@ -13790,7 +13915,7 @@
       <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="128"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="130"/>
       <c r="C27" s="6" t="s">
         <v>29</v>
@@ -13798,7 +13923,7 @@
       <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="128"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="130" t="s">
         <v>113</v>
       </c>
@@ -13808,7 +13933,7 @@
       <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="128"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="130"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
@@ -13816,7 +13941,7 @@
       <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="128"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="130"/>
       <c r="C30" s="6" t="s">
         <v>29</v>
@@ -13824,7 +13949,7 @@
       <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="128"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="130" t="s">
         <v>143</v>
       </c>
@@ -13834,7 +13959,7 @@
       <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="128"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="130"/>
       <c r="C32" s="6" t="s">
         <v>28</v>
@@ -13842,7 +13967,7 @@
       <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="128"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="130"/>
       <c r="C33" s="6" t="s">
         <v>29</v>
@@ -13851,6 +13976,11 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A24"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -13863,11 +13993,6 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A24"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14213,7 +14338,7 @@
   <dimension ref="A1:AB33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -14240,8 +14365,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
-        <v>164</v>
+      <c r="A1" s="73" t="s">
+        <v>245</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -14275,48 +14400,48 @@
       <c r="A2" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
-        <v>103</v>
+      <c r="B2" s="150" t="s">
+        <v>246</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="123"/>
-      <c r="E2" s="121" t="s">
-        <v>107</v>
+      <c r="E2" s="150" t="s">
+        <v>248</v>
       </c>
       <c r="F2" s="122"/>
       <c r="G2" s="124"/>
-      <c r="H2" s="121" t="s">
-        <v>108</v>
+      <c r="H2" s="150" t="s">
+        <v>250</v>
       </c>
       <c r="I2" s="122"/>
       <c r="J2" s="124"/>
-      <c r="K2" s="121" t="s">
-        <v>165</v>
+      <c r="K2" s="150" t="s">
+        <v>252</v>
       </c>
       <c r="L2" s="122"/>
       <c r="M2" s="124"/>
-      <c r="N2" s="121" t="s">
-        <v>166</v>
+      <c r="N2" s="150" t="s">
+        <v>254</v>
       </c>
       <c r="O2" s="122"/>
       <c r="P2" s="124"/>
-      <c r="Q2" s="121" t="s">
-        <v>109</v>
+      <c r="Q2" s="150" t="s">
+        <v>256</v>
       </c>
       <c r="R2" s="122"/>
       <c r="S2" s="124"/>
-      <c r="T2" s="121" t="s">
-        <v>143</v>
+      <c r="T2" s="150" t="s">
+        <v>258</v>
       </c>
       <c r="U2" s="122"/>
       <c r="V2" s="124"/>
-      <c r="W2" s="121" t="s">
-        <v>112</v>
+      <c r="W2" s="150" t="s">
+        <v>260</v>
       </c>
       <c r="X2" s="122"/>
       <c r="Y2" s="124"/>
-      <c r="Z2" s="121" t="s">
-        <v>113</v>
+      <c r="Z2" s="150" t="s">
+        <v>262</v>
       </c>
       <c r="AA2" s="122"/>
       <c r="AB2" s="124"/>
@@ -15623,6 +15748,276 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{974631FE-7667-4E77-B1C5-E649F5A192F8}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
+    <col min="3" max="3" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="73" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="152" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="152" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="153" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="152"/>
+      <c r="B3" s="152"/>
+      <c r="C3" s="154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="155" t="s">
+        <v>247</v>
+      </c>
+      <c r="B4" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="156"/>
+    </row>
+    <row r="5" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="155"/>
+      <c r="B5" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="156"/>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="155"/>
+      <c r="B6" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C6" s="156"/>
+    </row>
+    <row r="7" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="155" t="s">
+        <v>249</v>
+      </c>
+      <c r="B7" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="156"/>
+    </row>
+    <row r="8" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="155"/>
+      <c r="B8" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="156"/>
+    </row>
+    <row r="9" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="155"/>
+      <c r="B9" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C9" s="156"/>
+    </row>
+    <row r="10" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="155" t="s">
+        <v>251</v>
+      </c>
+      <c r="B10" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" s="156"/>
+    </row>
+    <row r="11" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="155"/>
+      <c r="B11" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="156"/>
+    </row>
+    <row r="12" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="155"/>
+      <c r="B12" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C12" s="156"/>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="155" t="s">
+        <v>253</v>
+      </c>
+      <c r="B13" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="156"/>
+    </row>
+    <row r="14" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="155"/>
+      <c r="B14" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="156"/>
+    </row>
+    <row r="15" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="155"/>
+      <c r="B15" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="156"/>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="155" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="156"/>
+    </row>
+    <row r="17" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="155"/>
+      <c r="B17" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="156"/>
+    </row>
+    <row r="18" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="155"/>
+      <c r="B18" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="156"/>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="155" t="s">
+        <v>257</v>
+      </c>
+      <c r="B19" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="156"/>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="155"/>
+      <c r="B20" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" s="156"/>
+    </row>
+    <row r="21" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="155"/>
+      <c r="B21" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="156"/>
+    </row>
+    <row r="22" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="155" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="156"/>
+    </row>
+    <row r="23" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="155"/>
+      <c r="B23" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="156"/>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="155"/>
+      <c r="B24" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="156"/>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="155" t="s">
+        <v>261</v>
+      </c>
+      <c r="B25" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="156"/>
+    </row>
+    <row r="26" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="155"/>
+      <c r="B26" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="156"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="155"/>
+      <c r="B27" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C27" s="156"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="155" t="s">
+        <v>263</v>
+      </c>
+      <c r="B28" s="153" t="s">
+        <v>27</v>
+      </c>
+      <c r="C28" s="156"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="155"/>
+      <c r="B29" s="153" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29" s="156"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="155"/>
+      <c r="B30" s="153" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="156"/>
+    </row>
+    <row r="31" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
+  </mergeCells>
+  <phoneticPr fontId="24" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -15640,7 +16035,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -15662,15 +16057,15 @@
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
-        <v>168</v>
-      </c>
-      <c r="B4" s="80" t="s">
+      <c r="A4" s="77" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="84" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -15679,24 +16074,24 @@
       <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="80" t="s">
+      <c r="A7" s="76"/>
+      <c r="B7" s="84" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -15705,24 +16100,24 @@
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="80" t="s">
+      <c r="A10" s="76"/>
+      <c r="B10" s="84" t="s">
         <v>160</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -15731,8 +16126,8 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
@@ -15740,17 +16135,17 @@
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="68"/>
-      <c r="B12" s="77"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="73" t="s">
-        <v>169</v>
-      </c>
-      <c r="B13" s="80" t="s">
+      <c r="A13" s="77" t="s">
+        <v>168</v>
+      </c>
+      <c r="B13" s="84" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -15759,24 +16154,24 @@
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="74"/>
-      <c r="B15" s="77"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="74"/>
-      <c r="B16" s="80" t="s">
+      <c r="A16" s="76"/>
+      <c r="B16" s="84" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -15785,23 +16180,23 @@
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="83"/>
       <c r="C18" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="128" t="s">
+      <c r="A19" s="126" t="s">
         <v>136</v>
       </c>
       <c r="B19" s="130" t="s">
@@ -15813,7 +16208,7 @@
       <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="128"/>
+      <c r="A20" s="126"/>
       <c r="B20" s="130"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
@@ -15821,7 +16216,7 @@
       <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="128"/>
+      <c r="A21" s="126"/>
       <c r="B21" s="130"/>
       <c r="C21" s="6" t="s">
         <v>151</v>
@@ -15829,7 +16224,7 @@
       <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="128"/>
+      <c r="A22" s="126"/>
       <c r="B22" s="130" t="s">
         <v>107</v>
       </c>
@@ -15839,7 +16234,7 @@
       <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="128"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="130"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
@@ -15847,7 +16242,7 @@
       <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="128"/>
+      <c r="A24" s="126"/>
       <c r="B24" s="130"/>
       <c r="C24" s="6" t="s">
         <v>151</v>
@@ -15855,7 +16250,7 @@
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="128"/>
+      <c r="A25" s="126"/>
       <c r="B25" s="130" t="s">
         <v>108</v>
       </c>
@@ -15865,7 +16260,7 @@
       <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="128"/>
+      <c r="A26" s="126"/>
       <c r="B26" s="130"/>
       <c r="C26" s="6" t="s">
         <v>28</v>
@@ -15873,7 +16268,7 @@
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="128"/>
+      <c r="A27" s="126"/>
       <c r="B27" s="130"/>
       <c r="C27" s="6" t="s">
         <v>151</v>
@@ -15881,9 +16276,9 @@
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="128"/>
+      <c r="A28" s="126"/>
       <c r="B28" s="130" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>27</v>
@@ -15891,7 +16286,7 @@
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="128"/>
+      <c r="A29" s="126"/>
       <c r="B29" s="130"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
@@ -15899,7 +16294,7 @@
       <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="128"/>
+      <c r="A30" s="126"/>
       <c r="B30" s="130"/>
       <c r="C30" s="6" t="s">
         <v>151</v>
@@ -15907,9 +16302,9 @@
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="128"/>
+      <c r="A31" s="126"/>
       <c r="B31" s="130" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>27</v>
@@ -15917,7 +16312,7 @@
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="128"/>
+      <c r="A32" s="126"/>
       <c r="B32" s="130"/>
       <c r="C32" s="6" t="s">
         <v>28</v>
@@ -15925,7 +16320,7 @@
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="128"/>
+      <c r="A33" s="126"/>
       <c r="B33" s="130"/>
       <c r="C33" s="6" t="s">
         <v>151</v>
@@ -15933,7 +16328,7 @@
       <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="128"/>
+      <c r="A34" s="126"/>
       <c r="B34" s="130" t="s">
         <v>109</v>
       </c>
@@ -15943,7 +16338,7 @@
       <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="128"/>
+      <c r="A35" s="126"/>
       <c r="B35" s="130"/>
       <c r="C35" s="6" t="s">
         <v>28</v>
@@ -15951,7 +16346,7 @@
       <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="128"/>
+      <c r="A36" s="126"/>
       <c r="B36" s="130"/>
       <c r="C36" s="6" t="s">
         <v>151</v>
@@ -15959,7 +16354,7 @@
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="128"/>
+      <c r="A37" s="126"/>
       <c r="B37" s="130" t="s">
         <v>143</v>
       </c>
@@ -15969,7 +16364,7 @@
       <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="128"/>
+      <c r="A38" s="126"/>
       <c r="B38" s="130"/>
       <c r="C38" s="6" t="s">
         <v>28</v>
@@ -15977,7 +16372,7 @@
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="128"/>
+      <c r="A39" s="126"/>
       <c r="B39" s="130"/>
       <c r="C39" s="6" t="s">
         <v>151</v>
@@ -15985,7 +16380,7 @@
       <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="128"/>
+      <c r="A40" s="126"/>
       <c r="B40" s="130" t="s">
         <v>112</v>
       </c>
@@ -15995,7 +16390,7 @@
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="128"/>
+      <c r="A41" s="126"/>
       <c r="B41" s="130"/>
       <c r="C41" s="6" t="s">
         <v>28</v>
@@ -16003,7 +16398,7 @@
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="128"/>
+      <c r="A42" s="126"/>
       <c r="B42" s="130"/>
       <c r="C42" s="6" t="s">
         <v>151</v>
@@ -16011,7 +16406,7 @@
       <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="128"/>
+      <c r="A43" s="126"/>
       <c r="B43" s="130" t="s">
         <v>113</v>
       </c>
@@ -16021,7 +16416,7 @@
       <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="128"/>
+      <c r="A44" s="126"/>
       <c r="B44" s="130"/>
       <c r="C44" s="6" t="s">
         <v>28</v>
@@ -16029,7 +16424,7 @@
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="128"/>
+      <c r="A45" s="126"/>
       <c r="B45" s="130"/>
       <c r="C45" s="6" t="s">
         <v>151</v>
@@ -16038,6 +16433,11 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
@@ -16054,18 +16454,13 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3300-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16080,7 +16475,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -16100,22 +16495,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="132" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C2" s="133"/>
       <c r="D2" s="134"/>
       <c r="E2" s="132" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F2" s="133"/>
       <c r="G2" s="134"/>
       <c r="H2" s="132" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I2" s="133"/>
       <c r="J2" s="134"/>
       <c r="K2" s="132" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="L2" s="133"/>
       <c r="M2" s="135"/>
@@ -16129,7 +16524,7 @@
         <v>28</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E3" s="23" t="s">
         <v>27</v>
@@ -16138,7 +16533,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H3" s="23" t="s">
         <v>27</v>
@@ -16147,16 +16542,16 @@
         <v>28</v>
       </c>
       <c r="J3" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="K3" s="23" t="s">
         <v>175</v>
       </c>
-      <c r="K3" s="23" t="s">
+      <c r="L3" s="23" t="s">
         <v>176</v>
       </c>
-      <c r="L3" s="23" t="s">
-        <v>177</v>
-      </c>
       <c r="M3" s="24" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -16328,7 +16723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16343,7 +16738,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -16357,12 +16752,12 @@
         <v>1</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="123"/>
       <c r="E2" s="121" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F2" s="122"/>
       <c r="G2" s="124"/>
@@ -16466,7 +16861,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16500,7 +16895,7 @@
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B1" s="86"/>
       <c r="C1" s="86"/>
@@ -16520,22 +16915,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="121" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="122"/>
       <c r="D2" s="123"/>
       <c r="E2" s="121" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="F2" s="122"/>
       <c r="G2" s="123"/>
       <c r="H2" s="121" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I2" s="122"/>
       <c r="J2" s="123"/>
       <c r="K2" s="121" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L2" s="122"/>
       <c r="M2" s="124"/>
@@ -16716,7 +17111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16731,7 +17126,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -16917,7 +17312,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -16932,7 +17327,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="69" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B1" s="69"/>
       <c r="C1" s="69"/>
@@ -16955,17 +17350,17 @@
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
-      <c r="B3" s="77"/>
-      <c r="C3" s="77"/>
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="77" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="80" t="s">
-        <v>188</v>
+      <c r="B4" s="84" t="s">
+        <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>27</v>
@@ -16974,8 +17369,8 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="74"/>
-      <c r="B5" s="79"/>
+      <c r="A5" s="76"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
@@ -16983,8 +17378,8 @@
       <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="74"/>
-      <c r="B6" s="77"/>
+      <c r="A6" s="76"/>
+      <c r="B6" s="79"/>
       <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
@@ -16992,9 +17387,9 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="74"/>
-      <c r="B7" s="80" t="s">
-        <v>172</v>
+      <c r="A7" s="76"/>
+      <c r="B7" s="84" t="s">
+        <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>27</v>
@@ -17003,8 +17398,8 @@
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="79"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="83"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
@@ -17012,8 +17407,8 @@
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="74"/>
-      <c r="B9" s="77"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="79"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -17021,9 +17416,9 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="74"/>
-      <c r="B10" s="80" t="s">
-        <v>173</v>
+      <c r="A10" s="76"/>
+      <c r="B10" s="84" t="s">
+        <v>172</v>
       </c>
       <c r="C10" s="10" t="s">
         <v>27</v>
@@ -17032,8 +17427,8 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="74"/>
-      <c r="B11" s="79"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
@@ -17041,8 +17436,8 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="74"/>
-      <c r="B12" s="77"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="79"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
@@ -17050,9 +17445,9 @@
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="74"/>
-      <c r="B13" s="80" t="s">
-        <v>189</v>
+      <c r="A13" s="76"/>
+      <c r="B13" s="84" t="s">
+        <v>188</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>27</v>
@@ -17061,8 +17456,8 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="74"/>
-      <c r="B14" s="79"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="83"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
@@ -17071,7 +17466,7 @@
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="68"/>
-      <c r="B15" s="77"/>
+      <c r="B15" s="79"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
@@ -17079,11 +17474,11 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="73" t="s">
+      <c r="A16" s="77" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="80" t="s">
-        <v>179</v>
+      <c r="B16" s="84" t="s">
+        <v>178</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>27</v>
@@ -17092,8 +17487,8 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="74"/>
-      <c r="B17" s="79"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="83"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
@@ -17101,8 +17496,8 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="74"/>
-      <c r="B18" s="77"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="79"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
@@ -17110,9 +17505,9 @@
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="74"/>
-      <c r="B19" s="80" t="s">
-        <v>180</v>
+      <c r="A19" s="76"/>
+      <c r="B19" s="84" t="s">
+        <v>179</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>27</v>
@@ -17121,8 +17516,8 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="74"/>
-      <c r="B20" s="79"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="83"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
@@ -17131,7 +17526,7 @@
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="68"/>
-      <c r="B21" s="77"/>
+      <c r="B21" s="79"/>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
@@ -17139,11 +17534,11 @@
       <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="73" t="s">
+      <c r="A22" s="77" t="s">
+        <v>189</v>
+      </c>
+      <c r="B22" s="84" t="s">
         <v>190</v>
-      </c>
-      <c r="B22" s="80" t="s">
-        <v>191</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>27</v>
@@ -17152,8 +17547,8 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74"/>
-      <c r="B23" s="79"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="83"/>
       <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
@@ -17161,8 +17556,8 @@
       <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="77"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="79"/>
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
@@ -17170,9 +17565,9 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="74"/>
-      <c r="B25" s="80" t="s">
-        <v>183</v>
+      <c r="A25" s="76"/>
+      <c r="B25" s="84" t="s">
+        <v>182</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>27</v>
@@ -17181,8 +17576,8 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="74"/>
-      <c r="B26" s="79"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
@@ -17190,8 +17585,8 @@
       <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="74"/>
-      <c r="B27" s="77"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="79"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
@@ -17199,9 +17594,9 @@
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="74"/>
-      <c r="B28" s="80" t="s">
-        <v>184</v>
+      <c r="A28" s="76"/>
+      <c r="B28" s="84" t="s">
+        <v>183</v>
       </c>
       <c r="C28" s="10" t="s">
         <v>27</v>
@@ -17210,8 +17605,8 @@
       <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="74"/>
-      <c r="B29" s="79"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="83"/>
       <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
@@ -17219,8 +17614,8 @@
       <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="74"/>
-      <c r="B30" s="77"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="79"/>
       <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
@@ -17228,9 +17623,9 @@
       <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="74"/>
-      <c r="B31" s="80" t="s">
-        <v>185</v>
+      <c r="A31" s="76"/>
+      <c r="B31" s="84" t="s">
+        <v>184</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>27</v>
@@ -17239,8 +17634,8 @@
       <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="74"/>
-      <c r="B32" s="79"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="83"/>
       <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
@@ -17248,8 +17643,8 @@
       <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="74"/>
-      <c r="B33" s="81"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="85"/>
       <c r="C33" s="20" t="s">
         <v>29</v>
       </c>
@@ -17257,10 +17652,10 @@
       <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="80" t="s">
+      <c r="A34" s="77" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="84" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -17270,8 +17665,8 @@
       <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="74"/>
-      <c r="B35" s="79"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="83"/>
       <c r="C35" s="18" t="s">
         <v>39</v>
       </c>
@@ -17279,8 +17674,8 @@
       <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="74"/>
-      <c r="B36" s="77"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="79"/>
       <c r="C36" s="18" t="s">
         <v>29</v>
       </c>
@@ -17288,8 +17683,8 @@
       <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="74"/>
-      <c r="B37" s="80" t="s">
+      <c r="A37" s="76"/>
+      <c r="B37" s="84" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -17299,8 +17694,8 @@
       <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="74"/>
-      <c r="B38" s="79"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="83"/>
       <c r="C38" s="18" t="s">
         <v>28</v>
       </c>
@@ -17309,7 +17704,7 @@
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="68"/>
-      <c r="B39" s="77"/>
+      <c r="B39" s="79"/>
       <c r="C39" s="18" t="s">
         <v>29</v>
       </c>
@@ -17324,12 +17719,6 @@
     <protectedRange sqref="D3:E39" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="20">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -17344,13 +17733,19 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3800-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
@@ -17362,7 +17757,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -17378,19 +17773,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="D2" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="E2" s="18" t="s">
         <v>196</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="F2" s="18" t="s">
         <v>197</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>198</v>
       </c>
       <c r="G2" s="18" t="s">
         <v>27</v>
@@ -17399,7 +17794,7 @@
         <v>28</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
@@ -17558,7 +17953,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
@@ -17573,7 +17968,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -17587,7 +17982,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="72" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>76</v>
@@ -17609,10 +18004,10 @@
       <c r="A3" s="146"/>
       <c r="B3" s="72"/>
       <c r="C3" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E3" s="72"/>
       <c r="F3" s="72"/>
@@ -17726,7 +18121,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3A00-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -17742,7 +18137,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="143" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B1" s="144"/>
       <c r="C1" s="144"/>
@@ -17755,7 +18150,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C2" s="18" t="s">
         <v>27</v>
@@ -17764,10 +18159,10 @@
         <v>28</v>
       </c>
       <c r="E2" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F2" s="19" t="s">
         <v>205</v>
-      </c>
-      <c r="F2" s="19" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -17911,7 +18306,226 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="69" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+    </row>
+    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="71"/>
+      <c r="B3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+    </row>
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+    </row>
+    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+    </row>
+    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+    </row>
+    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+    </row>
+    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
+    </row>
+    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+    </row>
+    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+    </row>
+    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+    </row>
+    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+    </row>
+    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+    </row>
+    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+    </row>
+    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+    </row>
+    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+    </row>
+    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+    </row>
+  </sheetData>
+  <protectedRanges>
+    <protectedRange sqref="A4" name="区域1_1_1"/>
+  </protectedRanges>
+  <mergeCells count="4">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="A2:A3"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
@@ -17931,7 +18545,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -17947,7 +18561,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="62"/>
@@ -17959,37 +18573,37 @@
       <c r="H2" s="61"/>
       <c r="I2" s="63"/>
       <c r="K2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="148"/>
       <c r="B3" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="G3" s="15" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="15" t="s">
-        <v>211</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="K3" t="s">
         <v>215</v>
-      </c>
-      <c r="K3" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -18005,226 +18619,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
-  <dimension ref="A1:G19"/>
-  <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>33</v>
-      </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
-        <v>34</v>
-      </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-    </row>
-    <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
-      <c r="B3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-    </row>
-    <row r="6" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-    </row>
-    <row r="7" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-    </row>
-    <row r="8" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
-    </row>
-    <row r="9" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
-    </row>
-    <row r="10" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
-    </row>
-    <row r="11" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-    </row>
-    <row r="12" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
-    </row>
-    <row r="13" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-    </row>
-    <row r="14" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
-    </row>
-    <row r="15" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-    </row>
-    <row r="17" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-    </row>
-    <row r="18" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="51"/>
-      <c r="G18" s="51"/>
-    </row>
-    <row r="19" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-    </row>
-  </sheetData>
-  <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1"/>
-  </protectedRanges>
-  <mergeCells count="4">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="A2:A3"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -18244,7 +18639,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -18260,7 +18655,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="62"/>
@@ -18272,34 +18667,34 @@
       <c r="H2" s="61"/>
       <c r="I2" s="63"/>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
       <c r="B3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -18314,7 +18709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
@@ -18334,7 +18729,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -18350,7 +18745,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="60" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="62"/>
@@ -18362,34 +18757,34 @@
       <c r="H2" s="61"/>
       <c r="I2" s="63"/>
       <c r="K2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="68"/>
       <c r="B3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="E3" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>211</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -18404,7 +18799,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF7030A0"/>
@@ -18424,7 +18819,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="149" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B1" s="149"/>
       <c r="C1" s="149"/>
@@ -18435,43 +18830,43 @@
       <c r="H1" s="149"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="127"/>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127" t="s">
-        <v>208</v>
-      </c>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128" t="s">
+        <v>207</v>
+      </c>
+      <c r="F2" s="128"/>
+      <c r="G2" s="128"/>
+      <c r="H2" s="128"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>209</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="6" t="s">
+      <c r="G3" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="F3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>211</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -18485,7 +18880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3F00-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
@@ -18503,7 +18898,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="66" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B1" s="66"/>
       <c r="C1" s="66"/>
@@ -18516,19 +18911,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -18540,7 +18935,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-4000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/service-system/target/classes/static/报告中表格.xlsx
+++ b/service-system/target/classes/static/报告中表格.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\jjgys\jjgys-parent\service-system\src\main\resources\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60678A42-9E5B-4307-A825-EFBB0C45B10A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF76B3E7-3463-41A6-9621-460505800E0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="871" firstSheet="35" activeTab="49" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="871" firstSheet="41" activeTab="57" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表3.4.1-1" sheetId="1" r:id="rId1"/>
@@ -2400,7 +2400,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="157">
+  <cellXfs count="156">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2579,6 +2579,15 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2621,31 +2630,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2658,6 +2655,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2708,9 +2717,6 @@
     <xf numFmtId="177" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2738,6 +2744,15 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2745,15 +2760,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2780,13 +2786,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -2797,6 +2806,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2851,27 +2869,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3194,41 +3191,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
     </row>
     <row r="2" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="65"/>
+      <c r="A3" s="68"/>
       <c r="B3" s="28" t="s">
         <v>5</v>
       </c>
@@ -3761,7 +3758,7 @@
   </sheetPr>
   <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
@@ -3771,21 +3768,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="85" t="s">
         <v>232</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="86" t="s">
         <v>233</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="79" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="88" t="s">
         <v>235</v>
       </c>
       <c r="D2" s="55" t="s">
@@ -3793,15 +3790,15 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
     </row>
     <row r="4" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="87" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="82" t="s">
+      <c r="B4" s="81" t="s">
         <v>237</v>
       </c>
       <c r="C4" s="58" t="s">
@@ -3809,22 +3806,22 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="58" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="58" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="81" t="s">
         <v>238</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -3832,22 +3829,22 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="82" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="81" t="s">
         <v>239</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -3855,22 +3852,22 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="82" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="81" t="s">
         <v>240</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -3878,24 +3875,24 @@
       </c>
     </row>
     <row r="14" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="75" t="s">
+      <c r="A16" s="87" t="s">
         <v>244</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="81" t="s">
         <v>242</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -3903,22 +3900,22 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="82" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="81" t="s">
         <v>243</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -3926,24 +3923,24 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="83" t="s">
         <v>36</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -3951,22 +3948,22 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="84" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="83" t="s">
         <v>37</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -3974,24 +3971,24 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="68"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="77" t="s">
+      <c r="A28" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="83" t="s">
         <v>36</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -3999,22 +3996,22 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="83" t="s">
         <v>37</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -4022,24 +4019,24 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="68"/>
-      <c r="B33" s="79"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="80"/>
       <c r="C33" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="76" t="s">
         <v>3</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="83" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="10" t="s">
@@ -4047,22 +4044,22 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="76"/>
-      <c r="B37" s="84" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="83" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="10" t="s">
@@ -4070,21 +4067,27 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="23.45" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="80"/>
-      <c r="B39" s="85"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="84"/>
       <c r="C39" s="20" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:B3"/>
@@ -4100,12 +4103,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4121,7 +4118,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4134,62 +4131,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
-      <c r="I1" s="87"/>
-      <c r="J1" s="87"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
     </row>
     <row r="2" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="94" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="99" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="99"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="91"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="49" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="95"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="97"/>
+      <c r="G3" s="98"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -4301,10 +4298,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="M30" sqref="M30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4317,48 +4314,48 @@
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="103" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+    </row>
+    <row r="2" spans="1:7" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -4567,18 +4564,9 @@
       <c r="F26" s="51"/>
       <c r="G26" s="51"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-    </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4590,10 +4578,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="M36" sqref="M36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4606,64 +4594,55 @@
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4675,10 +4654,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4691,64 +4670,55 @@
     <col min="6" max="6" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="100" t="s">
+    <row r="1" spans="1:7" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="103" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="100"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100"/>
-      <c r="G1" s="100"/>
-    </row>
-    <row r="2" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="86"/>
-      <c r="B2" s="86"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-    </row>
-    <row r="3" spans="1:7" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="104"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+    </row>
+    <row r="2" spans="1:7" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C2" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D2" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4760,10 +4730,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4774,53 +4744,53 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -5012,22 +4982,12 @@
       <c r="G22" s="51"/>
       <c r="H22" s="51"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="51"/>
-      <c r="F23" s="51"/>
-      <c r="G23" s="51"/>
-      <c r="H23" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5042,7 +5002,7 @@
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5051,49 +5011,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>72</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="92" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="99" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="97"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -5140,54 +5100,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="108" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="111" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="110"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -5237,49 +5197,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="108" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="111" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="110"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="112"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -5313,10 +5273,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5327,53 +5287,53 @@
     <col min="7" max="7" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -5615,22 +5575,12 @@
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5651,46 +5601,46 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="63"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
@@ -6339,10 +6289,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6351,53 +6301,53 @@
     <col min="5" max="5" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+    </row>
+    <row r="2" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -6629,22 +6579,12 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6668,64 +6608,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="105" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
+      <c r="B1" s="105"/>
+      <c r="C1" s="105"/>
+      <c r="D1" s="105"/>
+      <c r="E1" s="105"/>
+      <c r="F1" s="105"/>
+      <c r="G1" s="105"/>
+      <c r="H1" s="105"/>
+      <c r="I1" s="105"/>
+      <c r="J1" s="105"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="99" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="49" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="97"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -7197,10 +7137,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7209,70 +7149,60 @@
     <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="113" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+    </row>
+    <row r="2" spans="1:8" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7284,10 +7214,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7299,38 +7229,38 @@
     <col min="5" max="5" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>98</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -7402,19 +7332,12 @@
       <c r="D13" s="51"/>
       <c r="E13" s="51"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4" name="区域1_1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7426,10 +7349,10 @@
   <sheetPr>
     <tabColor theme="9" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7440,38 +7363,38 @@
     <col min="5" max="5" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -7578,20 +7501,13 @@
       <c r="D18" s="51"/>
       <c r="E18" s="51"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B4" name="区域1_1_1_1"/>
-    <protectedRange sqref="A4" name="区域1_1_1_1_1"/>
+    <protectedRange sqref="B3" name="区域1_1_1_1"/>
+    <protectedRange sqref="A3" name="区域1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7617,24 +7533,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>100</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:5" ht="25.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="110" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="56" t="s">
@@ -7642,19 +7558,19 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -7662,25 +7578,25 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -7688,25 +7604,25 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="41" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="118"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="114" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -7714,25 +7630,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="114" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -7740,25 +7656,25 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="118"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="114" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -7766,25 +7682,25 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="114" t="s">
         <v>110</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -7792,25 +7708,25 @@
       </c>
     </row>
     <row r="20" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="118"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="114" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -7818,25 +7734,25 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="118"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="114" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -7844,25 +7760,25 @@
       </c>
     </row>
     <row r="26" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="93"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="115" t="s">
+      <c r="A28" s="118"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="41" t="s">
@@ -7870,27 +7786,27 @@
       </c>
     </row>
     <row r="29" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="115" t="s">
+      <c r="A31" s="118"/>
+      <c r="B31" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="114" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="41" t="s">
@@ -7898,25 +7814,25 @@
       </c>
     </row>
     <row r="32" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="93"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="118"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="114" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="41" t="s">
@@ -7924,25 +7840,25 @@
       </c>
     </row>
     <row r="35" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="115" t="s">
+      <c r="A37" s="118"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="114" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="41" t="s">
@@ -7950,25 +7866,25 @@
       </c>
     </row>
     <row r="38" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="115" t="s">
+      <c r="A40" s="118"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="114" t="s">
         <v>110</v>
       </c>
       <c r="D40" s="41" t="s">
@@ -7976,25 +7892,25 @@
       </c>
     </row>
     <row r="41" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="118"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="93"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="118"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="114" t="s">
         <v>111</v>
       </c>
       <c r="D43" s="41" t="s">
@@ -8002,25 +7918,25 @@
       </c>
     </row>
     <row r="44" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="118"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="93"/>
+      <c r="A45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
+      <c r="A46" s="118"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="114" t="s">
         <v>112</v>
       </c>
       <c r="D46" s="41" t="s">
@@ -8028,25 +7944,25 @@
       </c>
     </row>
     <row r="47" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="113"/>
-      <c r="B48" s="116"/>
-      <c r="C48" s="93"/>
+      <c r="A48" s="118"/>
+      <c r="B48" s="115"/>
+      <c r="C48" s="96"/>
       <c r="D48" s="41" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="113"/>
-      <c r="B49" s="116"/>
-      <c r="C49" s="115" t="s">
+      <c r="A49" s="118"/>
+      <c r="B49" s="115"/>
+      <c r="C49" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D49" s="41" t="s">
@@ -8054,17 +7970,17 @@
       </c>
     </row>
     <row r="50" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="113"/>
-      <c r="B50" s="116"/>
-      <c r="C50" s="116"/>
+      <c r="A50" s="118"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="115"/>
       <c r="D50" s="41" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="114"/>
-      <c r="B51" s="117"/>
-      <c r="C51" s="117"/>
+      <c r="A51" s="119"/>
+      <c r="B51" s="116"/>
+      <c r="C51" s="116"/>
       <c r="D51" s="43" t="s">
         <v>104</v>
       </c>
@@ -8072,14 +7988,6 @@
     <row r="52" spans="1:4" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="C49:C51"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A51"/>
@@ -8096,6 +8004,14 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="C49:C51"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8107,10 +8023,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39994506668294322"/>
   </sheetPr>
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8119,53 +8035,53 @@
     <col min="4" max="4" width="13.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+    </row>
+    <row r="2" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -8467,22 +8383,12 @@
       <c r="G33" s="51"/>
       <c r="H33" s="51"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="51"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="51"/>
-      <c r="H34" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:H34" name="区域1_1_1_1_1"/>
+    <protectedRange sqref="A3:H33" name="区域1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8494,10 +8400,10 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39994506668294322"/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8508,38 +8414,38 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>63</v>
       </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -8688,19 +8594,12 @@
       <c r="D24" s="51"/>
       <c r="E24" s="51"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:E25" name="区域1_1_1_1_1"/>
+    <protectedRange sqref="A3:E24" name="区域1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8712,61 +8611,61 @@
   <sheetPr>
     <tabColor theme="3" tint="0.39994506668294322"/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>119</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -8998,22 +8897,12 @@
       <c r="G26" s="51"/>
       <c r="H26" s="51"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="51"/>
-      <c r="F27" s="51"/>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:H27" name="区域1_1_1_1_1"/>
+    <protectedRange sqref="A3:H26" name="区域1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9034,21 +8923,21 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>120</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -9056,18 +8945,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="40" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="118" t="s">
+      <c r="A4" s="120" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>123</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -9076,24 +8965,24 @@
       <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="119"/>
-      <c r="B5" s="116"/>
+      <c r="A5" s="121"/>
+      <c r="B5" s="115"/>
       <c r="C5" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="25"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="119"/>
-      <c r="B6" s="93"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="41" t="s">
         <v>104</v>
       </c>
       <c r="D6" s="42"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="119"/>
-      <c r="B7" s="115" t="s">
+      <c r="A7" s="121"/>
+      <c r="B7" s="114" t="s">
         <v>113</v>
       </c>
       <c r="C7" s="41" t="s">
@@ -9102,24 +8991,24 @@
       <c r="D7" s="25"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="119"/>
-      <c r="B8" s="116"/>
+      <c r="A8" s="121"/>
+      <c r="B8" s="115"/>
       <c r="C8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="25"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="119"/>
-      <c r="B9" s="93"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="41" t="s">
         <v>104</v>
       </c>
       <c r="D9" s="42"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="119"/>
-      <c r="B10" s="115" t="s">
+      <c r="A10" s="121"/>
+      <c r="B10" s="114" t="s">
         <v>110</v>
       </c>
       <c r="C10" s="41" t="s">
@@ -9128,24 +9017,24 @@
       <c r="D10" s="25"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="119"/>
-      <c r="B11" s="116"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="115"/>
       <c r="C11" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="25"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="119"/>
-      <c r="B12" s="93"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="43" t="s">
         <v>104</v>
       </c>
       <c r="D12" s="44"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="119"/>
-      <c r="B13" s="115" t="s">
+      <c r="A13" s="121"/>
+      <c r="B13" s="114" t="s">
         <v>111</v>
       </c>
       <c r="C13" s="41" t="s">
@@ -9154,16 +9043,16 @@
       <c r="D13" s="25"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="119"/>
-      <c r="B14" s="116"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="115"/>
       <c r="C14" s="41" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="25"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="119"/>
-      <c r="B15" s="93"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="43" t="s">
         <v>104</v>
       </c>
@@ -9200,49 +9089,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="60" t="s">
+      <c r="I2" s="64"/>
+      <c r="J2" s="66"/>
+      <c r="K2" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L2" s="61"/>
-      <c r="M2" s="63"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="66"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
@@ -9451,56 +9340,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="98" t="s">
+      <c r="A2" s="101" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="92" t="s">
+      <c r="B2" s="93"/>
+      <c r="C2" s="95" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="88" t="s">
+      <c r="D2" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="89"/>
-      <c r="F2" s="94" t="s">
+      <c r="E2" s="92"/>
+      <c r="F2" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="95" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="96" t="s">
+      <c r="I2" s="99" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="99"/>
-      <c r="B3" s="91"/>
-      <c r="C3" s="93"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="96"/>
       <c r="D3" s="49" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="95"/>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="97"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="100"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -9757,10 +9646,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9770,53 +9659,53 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>125</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="24.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -9938,22 +9827,12 @@
       <c r="G15" s="51"/>
       <c r="H15" s="51"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:H16" name="区域1_1_1_1_1_1"/>
+    <protectedRange sqref="A3:H15" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9977,49 +9856,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="104" t="s">
+      <c r="C2" s="106" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="105"/>
-      <c r="E2" s="92" t="s">
+      <c r="D2" s="107"/>
+      <c r="E2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="92" t="s">
+      <c r="F2" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="96" t="s">
+      <c r="G2" s="99" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="93"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="93"/>
-      <c r="F3" s="93"/>
-      <c r="G3" s="97"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="100"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -10165,54 +10044,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
     </row>
     <row r="2" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>79</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="108" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="110" t="s">
         <v>80</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="109" t="s">
+      <c r="H2" s="111" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="110"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="112"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -10381,49 +10260,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>128</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
     </row>
     <row r="2" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>83</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="63" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="62"/>
-      <c r="E2" s="108" t="s">
+      <c r="D2" s="65"/>
+      <c r="E2" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="110" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="109" t="s">
+      <c r="G2" s="111" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
       <c r="C3" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="110"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="112"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10445,10 +10324,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10459,52 +10338,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>129</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" ht="12.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="50" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="23.25" x14ac:dyDescent="0.15">
+      <c r="A2" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>71</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -10666,22 +10545,12 @@
       <c r="G19" s="51"/>
       <c r="H19" s="51"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="51"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:H20" name="区域1_1_1_1_1"/>
+    <protectedRange sqref="A3:H19" name="区域1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10693,10 +10562,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H24"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10705,53 +10574,53 @@
     <col min="7" max="7" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="72" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-    </row>
-    <row r="2" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
-      <c r="G2" s="66"/>
-      <c r="H2" s="66"/>
-    </row>
-    <row r="3" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+    </row>
+    <row r="2" spans="1:8" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>88</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -10953,22 +10822,12 @@
       <c r="G23" s="51"/>
       <c r="H23" s="51"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="51"/>
-      <c r="F24" s="51"/>
-      <c r="G24" s="51"/>
-      <c r="H24" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:H24" name="区域1_1_1_1_1"/>
+    <protectedRange sqref="A3:H23" name="区域1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10992,64 +10851,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106" t="s">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="95" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="92" t="s">
+      <c r="C2" s="95" t="s">
         <v>91</v>
       </c>
-      <c r="D2" s="92" t="s">
+      <c r="D2" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="91" t="s">
         <v>93</v>
       </c>
-      <c r="F2" s="89"/>
-      <c r="G2" s="92" t="s">
+      <c r="F2" s="92"/>
+      <c r="G2" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="95" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="95" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="99" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="107"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="93"/>
+      <c r="A3" s="109"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
       <c r="E3" s="49" t="s">
         <v>55</v>
       </c>
       <c r="F3" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="93"/>
-      <c r="H3" s="93"/>
-      <c r="I3" s="93"/>
-      <c r="J3" s="97"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -11403,10 +11262,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11414,53 +11273,53 @@
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="111" t="s">
+    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
         <v>132</v>
       </c>
-      <c r="B1" s="111"/>
-      <c r="C1" s="111"/>
-      <c r="D1" s="111"/>
-      <c r="E1" s="111"/>
-      <c r="F1" s="111"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="111"/>
-    </row>
-    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="103"/>
-      <c r="B2" s="103"/>
-      <c r="C2" s="103"/>
-      <c r="D2" s="103"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="103"/>
-      <c r="H2" s="103"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="113"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="113"/>
+      <c r="E1" s="113"/>
+      <c r="F1" s="113"/>
+      <c r="G1" s="113"/>
+      <c r="H1" s="113"/>
+    </row>
+    <row r="2" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D2" s="48" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="46" t="s">
+      <c r="E2" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="46" t="s">
+      <c r="F2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="G3" s="46" t="s">
+      <c r="G2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="47" t="s">
+      <c r="H2" s="47" t="s">
         <v>54</v>
       </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -11702,22 +11561,12 @@
       <c r="G27" s="51"/>
       <c r="H27" s="51"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-    </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:H28" name="区域1_1_1_1_1_1"/>
+    <protectedRange sqref="A3:H27" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11729,10 +11578,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11743,52 +11592,45 @@
     <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:E4" name="区域1_1_1_1_1_1"/>
+    <protectedRange sqref="A3:E3" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11814,41 +11656,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="60" t="s">
+      <c r="F2" s="64"/>
+      <c r="G2" s="66"/>
+      <c r="H2" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="61"/>
-      <c r="J2" s="62"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
@@ -11947,10 +11789,10 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11960,52 +11802,45 @@
     <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+    <row r="1" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="72" t="s">
         <v>134</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-    </row>
-    <row r="2" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="66"/>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66"/>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66"/>
-    </row>
-    <row r="3" spans="1:5" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="45" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+    </row>
+    <row r="2" spans="1:5" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B2" s="46" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="47" t="s">
+      <c r="E2" s="47" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="A4:E4" name="区域1_1_1_1_1_1"/>
+    <protectedRange sqref="A3:E3" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="1">
-    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12026,25 +11861,25 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
     </row>
     <row r="2" spans="1:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="110" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="8" t="s">
@@ -12052,20 +11887,20 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="76"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="77"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="115" t="s">
+      <c r="A4" s="114" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="41" t="s">
@@ -12074,27 +11909,27 @@
       <c r="E4" s="41"/>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="116"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="41"/>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="116"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="41"/>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="116"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="114" t="s">
         <v>138</v>
       </c>
       <c r="D7" s="41" t="s">
@@ -12103,27 +11938,27 @@
       <c r="E7" s="41"/>
     </row>
     <row r="8" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="116"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="116"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="116"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="114" t="s">
         <v>139</v>
       </c>
       <c r="D10" s="41" t="s">
@@ -12132,27 +11967,27 @@
       <c r="E10" s="41"/>
     </row>
     <row r="11" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="116"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E11" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="116"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="41"/>
     </row>
     <row r="13" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="116"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="114" t="s">
         <v>109</v>
       </c>
       <c r="D13" s="41" t="s">
@@ -12161,27 +11996,27 @@
       <c r="E13" s="41"/>
     </row>
     <row r="14" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="116"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="41"/>
     </row>
     <row r="15" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="116"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E15" s="41"/>
     </row>
     <row r="16" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="116"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="114" t="s">
         <v>110</v>
       </c>
       <c r="D16" s="41" t="s">
@@ -12190,27 +12025,27 @@
       <c r="E16" s="41"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="116"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="41"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="116"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E18" s="41"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="116"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="115"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="114" t="s">
         <v>111</v>
       </c>
       <c r="D19" s="41" t="s">
@@ -12219,27 +12054,27 @@
       <c r="E19" s="41"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="116"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="41"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="116"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="41"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="116"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="114" t="s">
         <v>112</v>
       </c>
       <c r="D22" s="41" t="s">
@@ -12248,27 +12083,27 @@
       <c r="E22" s="41"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="116"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="41"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="116"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="41"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="116"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="115"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D25" s="41" t="s">
@@ -12277,29 +12112,29 @@
       <c r="E25" s="41"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="116"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="41"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="41"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="116"/>
-      <c r="B28" s="92" t="s">
+      <c r="A28" s="115"/>
+      <c r="B28" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="C28" s="92" t="s">
+      <c r="C28" s="95" t="s">
         <v>115</v>
       </c>
       <c r="D28" s="57" t="s">
@@ -12308,27 +12143,27 @@
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="116"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="41" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="116"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="93"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="41" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="116"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="115" t="s">
+      <c r="A31" s="115"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="114" t="s">
         <v>116</v>
       </c>
       <c r="D31" s="57" t="s">
@@ -12337,27 +12172,27 @@
       <c r="E31" s="57"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="116"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="115"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="57" t="s">
         <v>230</v>
       </c>
       <c r="E32" s="57"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="116"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="93"/>
+      <c r="A33" s="115"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E33" s="57"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="116"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="115"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="114" t="s">
         <v>109</v>
       </c>
       <c r="D34" s="57" t="s">
@@ -12366,27 +12201,27 @@
       <c r="E34" s="57"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="116"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="115"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="57" t="s">
         <v>230</v>
       </c>
       <c r="E35" s="57"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="116"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="115"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E36" s="57"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="116"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="115" t="s">
+      <c r="A37" s="115"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="114" t="s">
         <v>110</v>
       </c>
       <c r="D37" s="57" t="s">
@@ -12395,27 +12230,27 @@
       <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="116"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="115"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="57" t="s">
         <v>230</v>
       </c>
       <c r="E38" s="57"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="116"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="115"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E39" s="57"/>
     </row>
     <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="116"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="115" t="s">
+      <c r="A40" s="115"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="114" t="s">
         <v>111</v>
       </c>
       <c r="D40" s="57" t="s">
@@ -12424,27 +12259,27 @@
       <c r="E40" s="57"/>
     </row>
     <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="116"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="115"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="57" t="s">
         <v>230</v>
       </c>
       <c r="E41" s="57"/>
     </row>
     <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="116"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="93"/>
+      <c r="A42" s="115"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="116"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="115"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="114" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="57" t="s">
@@ -12453,27 +12288,27 @@
       <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="116"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="115"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="57" t="s">
         <v>230</v>
       </c>
       <c r="E44" s="57"/>
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="116"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="93"/>
+      <c r="A45" s="115"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="57" t="s">
         <v>231</v>
       </c>
       <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="116"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
+      <c r="A46" s="115"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="57" t="s">
@@ -12482,18 +12317,18 @@
       <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="116"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="A47" s="115"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="57" t="s">
         <v>230</v>
       </c>
       <c r="E47" s="57"/>
     </row>
     <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="117"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
+      <c r="A48" s="116"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="57" t="s">
         <v>231</v>
       </c>
@@ -12502,13 +12337,6 @@
     <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A48"/>
@@ -12525,6 +12353,13 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12545,31 +12380,31 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="110" t="s">
         <v>44</v>
       </c>
       <c r="E2" s="6" t="s">
@@ -12577,20 +12412,20 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
       <c r="E3" s="40"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="117" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="114" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="115" t="s">
+      <c r="C4" s="114" t="s">
         <v>103</v>
       </c>
       <c r="D4" s="39" t="s">
@@ -12599,27 +12434,27 @@
       <c r="E4" s="25"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="113"/>
-      <c r="B5" s="116"/>
-      <c r="C5" s="116"/>
+      <c r="A5" s="118"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
       <c r="D5" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E5" s="25"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="113"/>
-      <c r="B6" s="116"/>
-      <c r="C6" s="93"/>
+      <c r="A6" s="118"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="96"/>
       <c r="D6" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E6" s="42"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="113"/>
-      <c r="B7" s="116"/>
-      <c r="C7" s="115" t="s">
+      <c r="A7" s="118"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="114" t="s">
         <v>105</v>
       </c>
       <c r="D7" s="39" t="s">
@@ -12628,27 +12463,27 @@
       <c r="E7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="113"/>
-      <c r="B8" s="116"/>
-      <c r="C8" s="116"/>
+      <c r="A8" s="118"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
       <c r="D8" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E8" s="25"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="113"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="93"/>
+      <c r="A9" s="118"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="96"/>
       <c r="D9" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E9" s="42"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="113"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="115" t="s">
+      <c r="A10" s="118"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="114" t="s">
         <v>107</v>
       </c>
       <c r="D10" s="39" t="s">
@@ -12657,27 +12492,27 @@
       <c r="E10" s="25"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="113"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="116"/>
+      <c r="A11" s="118"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
       <c r="D11" s="39" t="s">
         <v>46</v>
       </c>
       <c r="E11" s="25"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="113"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="93"/>
+      <c r="A12" s="118"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="96"/>
       <c r="D12" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E12" s="42"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="113"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="115" t="s">
+      <c r="A13" s="118"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="114" t="s">
         <v>108</v>
       </c>
       <c r="D13" s="39" t="s">
@@ -12686,27 +12521,27 @@
       <c r="E13" s="25"/>
     </row>
     <row r="14" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="113"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="116"/>
+      <c r="A14" s="118"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
       <c r="D14" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E14" s="25"/>
     </row>
     <row r="15" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="113"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="93"/>
+      <c r="A15" s="118"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="96"/>
       <c r="D15" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E15" s="42"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="113"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="115" t="s">
+      <c r="A16" s="118"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="114" t="s">
         <v>109</v>
       </c>
       <c r="D16" s="39" t="s">
@@ -12715,27 +12550,27 @@
       <c r="E16" s="25"/>
     </row>
     <row r="17" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="113"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="116"/>
+      <c r="A17" s="118"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E17" s="25"/>
     </row>
     <row r="18" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="113"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="93"/>
+      <c r="A18" s="118"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="96"/>
       <c r="D18" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E18" s="42"/>
     </row>
     <row r="19" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="113"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="115" t="s">
+      <c r="A19" s="118"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="114" t="s">
         <v>141</v>
       </c>
       <c r="D19" s="39" t="s">
@@ -12744,27 +12579,27 @@
       <c r="E19" s="25"/>
     </row>
     <row r="20" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="113"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="116"/>
+      <c r="A20" s="118"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
       <c r="D20" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E20" s="25"/>
     </row>
     <row r="21" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="113"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="118"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="96"/>
       <c r="D21" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E21" s="42"/>
     </row>
     <row r="22" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="113"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="115" t="s">
+      <c r="A22" s="118"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="114" t="s">
         <v>142</v>
       </c>
       <c r="D22" s="39" t="s">
@@ -12773,27 +12608,27 @@
       <c r="E22" s="25"/>
     </row>
     <row r="23" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="113"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="116"/>
+      <c r="A23" s="118"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
       <c r="D23" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="25"/>
     </row>
     <row r="24" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="113"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="93"/>
+      <c r="A24" s="118"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="96"/>
       <c r="D24" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E24" s="42"/>
     </row>
     <row r="25" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="113"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="115" t="s">
+      <c r="A25" s="118"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="114" t="s">
         <v>112</v>
       </c>
       <c r="D25" s="39" t="s">
@@ -12802,27 +12637,27 @@
       <c r="E25" s="25"/>
     </row>
     <row r="26" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="113"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="116"/>
+      <c r="A26" s="118"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
       <c r="D26" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E26" s="25"/>
     </row>
     <row r="27" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="113"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="93"/>
+      <c r="A27" s="118"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="96"/>
       <c r="D27" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E27" s="44"/>
     </row>
     <row r="28" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="113"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="115" t="s">
+      <c r="A28" s="118"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D28" s="39" t="s">
@@ -12831,29 +12666,29 @@
       <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="113"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="116"/>
+      <c r="A29" s="118"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
       <c r="D29" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E29" s="42"/>
     </row>
     <row r="30" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="113"/>
-      <c r="B30" s="93"/>
-      <c r="C30" s="93"/>
+      <c r="A30" s="118"/>
+      <c r="B30" s="96"/>
+      <c r="C30" s="96"/>
       <c r="D30" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E30" s="42"/>
     </row>
     <row r="31" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="113"/>
-      <c r="B31" s="115" t="s">
+      <c r="A31" s="118"/>
+      <c r="B31" s="114" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="115" t="s">
+      <c r="C31" s="114" t="s">
         <v>115</v>
       </c>
       <c r="D31" s="39" t="s">
@@ -12862,27 +12697,27 @@
       <c r="E31" s="42"/>
     </row>
     <row r="32" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="113"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="116"/>
+      <c r="A32" s="118"/>
+      <c r="B32" s="115"/>
+      <c r="C32" s="115"/>
       <c r="D32" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E32" s="42"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="113"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="93"/>
+      <c r="A33" s="118"/>
+      <c r="B33" s="115"/>
+      <c r="C33" s="96"/>
       <c r="D33" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E33" s="42"/>
     </row>
     <row r="34" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="113"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="115" t="s">
+      <c r="A34" s="118"/>
+      <c r="B34" s="115"/>
+      <c r="C34" s="114" t="s">
         <v>116</v>
       </c>
       <c r="D34" s="39" t="s">
@@ -12891,27 +12726,27 @@
       <c r="E34" s="25"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="113"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="116"/>
+      <c r="A35" s="118"/>
+      <c r="B35" s="115"/>
+      <c r="C35" s="115"/>
       <c r="D35" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E35" s="25"/>
     </row>
     <row r="36" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="113"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="118"/>
+      <c r="B36" s="115"/>
+      <c r="C36" s="96"/>
       <c r="D36" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E36" s="42"/>
     </row>
     <row r="37" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="113"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="115" t="s">
+      <c r="A37" s="118"/>
+      <c r="B37" s="115"/>
+      <c r="C37" s="114" t="s">
         <v>109</v>
       </c>
       <c r="D37" s="39" t="s">
@@ -12920,27 +12755,27 @@
       <c r="E37" s="25"/>
     </row>
     <row r="38" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="113"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="116"/>
+      <c r="A38" s="118"/>
+      <c r="B38" s="115"/>
+      <c r="C38" s="115"/>
       <c r="D38" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E38" s="25"/>
     </row>
     <row r="39" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="113"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="93"/>
+      <c r="A39" s="118"/>
+      <c r="B39" s="115"/>
+      <c r="C39" s="96"/>
       <c r="D39" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E39" s="42"/>
     </row>
     <row r="40" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="113"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="115" t="s">
+      <c r="A40" s="118"/>
+      <c r="B40" s="115"/>
+      <c r="C40" s="114" t="s">
         <v>143</v>
       </c>
       <c r="D40" s="39" t="s">
@@ -12949,27 +12784,27 @@
       <c r="E40" s="25"/>
     </row>
     <row r="41" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="113"/>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
+      <c r="A41" s="118"/>
+      <c r="B41" s="115"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="25"/>
     </row>
     <row r="42" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="113"/>
-      <c r="B42" s="116"/>
-      <c r="C42" s="93"/>
+      <c r="A42" s="118"/>
+      <c r="B42" s="115"/>
+      <c r="C42" s="96"/>
       <c r="D42" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E42" s="42"/>
     </row>
     <row r="43" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="113"/>
-      <c r="B43" s="116"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="118"/>
+      <c r="B43" s="115"/>
+      <c r="C43" s="114" t="s">
         <v>112</v>
       </c>
       <c r="D43" s="39" t="s">
@@ -12978,27 +12813,27 @@
       <c r="E43" s="42"/>
     </row>
     <row r="44" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="113"/>
-      <c r="B44" s="116"/>
-      <c r="C44" s="116"/>
+      <c r="A44" s="118"/>
+      <c r="B44" s="115"/>
+      <c r="C44" s="115"/>
       <c r="D44" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E44" s="42"/>
     </row>
     <row r="45" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="113"/>
-      <c r="B45" s="116"/>
-      <c r="C45" s="93"/>
+      <c r="A45" s="118"/>
+      <c r="B45" s="115"/>
+      <c r="C45" s="96"/>
       <c r="D45" s="39" t="s">
         <v>104</v>
       </c>
       <c r="E45" s="42"/>
     </row>
     <row r="46" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="113"/>
-      <c r="B46" s="116"/>
-      <c r="C46" s="115" t="s">
+      <c r="A46" s="118"/>
+      <c r="B46" s="115"/>
+      <c r="C46" s="114" t="s">
         <v>113</v>
       </c>
       <c r="D46" s="39" t="s">
@@ -13007,18 +12842,18 @@
       <c r="E46" s="42"/>
     </row>
     <row r="47" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="113"/>
-      <c r="B47" s="116"/>
-      <c r="C47" s="116"/>
+      <c r="A47" s="118"/>
+      <c r="B47" s="115"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="39" t="s">
         <v>28</v>
       </c>
       <c r="E47" s="42"/>
     </row>
     <row r="48" spans="1:5" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="114"/>
-      <c r="B48" s="117"/>
-      <c r="C48" s="117"/>
+      <c r="A48" s="119"/>
+      <c r="B48" s="116"/>
+      <c r="C48" s="116"/>
       <c r="D48" s="39" t="s">
         <v>104</v>
       </c>
@@ -13027,13 +12862,6 @@
     <row r="49" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="C46:C48"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="C31:C33"/>
-    <mergeCell ref="C34:C36"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C42"/>
-    <mergeCell ref="C43:C45"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A48"/>
@@ -13050,6 +12878,13 @@
     <mergeCell ref="C22:C24"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C30"/>
+    <mergeCell ref="C46:C48"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="C31:C33"/>
+    <mergeCell ref="C34:C36"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C42"/>
+    <mergeCell ref="C43:C45"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13074,49 +12909,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>144</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
-      <c r="K2" s="72" t="s">
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
+      <c r="K2" s="75" t="s">
         <v>148</v>
       </c>
-      <c r="L2" s="72"/>
-      <c r="M2" s="72"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
@@ -13279,41 +13114,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72" t="s">
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="75" t="s">
         <v>147</v>
       </c>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="75"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
@@ -13472,41 +13307,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>150</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="121" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="123" t="s">
         <v>143</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
@@ -13679,21 +13514,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>152</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="151" t="s">
+      <c r="B2" s="131" t="s">
         <v>234</v>
       </c>
-      <c r="C2" s="72" t="s">
+      <c r="C2" s="75" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="18" t="s">
@@ -13701,18 +13536,18 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="127"/>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
+      <c r="A3" s="128"/>
+      <c r="B3" s="128"/>
+      <c r="C3" s="128"/>
       <c r="D3" s="34" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="129" t="s">
         <v>154</v>
       </c>
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="129" t="s">
         <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13721,24 +13556,24 @@
       <c r="D4" s="35"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="128"/>
-      <c r="B5" s="128"/>
+      <c r="A5" s="129"/>
+      <c r="B5" s="129"/>
       <c r="C5" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="35"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="128"/>
-      <c r="B6" s="128"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
       <c r="C6" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="36"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="128"/>
-      <c r="B7" s="128" t="s">
+      <c r="A7" s="129"/>
+      <c r="B7" s="129" t="s">
         <v>155</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -13747,24 +13582,24 @@
       <c r="D7" s="37"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="128"/>
-      <c r="B8" s="128"/>
+      <c r="A8" s="129"/>
+      <c r="B8" s="129"/>
       <c r="C8" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="37"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="128"/>
-      <c r="B9" s="128"/>
+      <c r="A9" s="129"/>
+      <c r="B9" s="129"/>
       <c r="C9" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="36"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="128"/>
-      <c r="B10" s="128" t="s">
+      <c r="A10" s="129"/>
+      <c r="B10" s="129" t="s">
         <v>147</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -13773,24 +13608,24 @@
       <c r="D10" s="37"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="128"/>
-      <c r="B11" s="128"/>
+      <c r="A11" s="129"/>
+      <c r="B11" s="129"/>
       <c r="C11" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="37"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="128"/>
-      <c r="B12" s="128"/>
+      <c r="A12" s="129"/>
+      <c r="B12" s="129"/>
       <c r="C12" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="36"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="128"/>
-      <c r="B13" s="128" t="s">
+      <c r="A13" s="129"/>
+      <c r="B13" s="129" t="s">
         <v>148</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -13799,26 +13634,26 @@
       <c r="D13" s="37"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="128"/>
-      <c r="B14" s="128"/>
+      <c r="A14" s="129"/>
+      <c r="B14" s="129"/>
       <c r="C14" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="128"/>
-      <c r="B15" s="128"/>
+      <c r="A15" s="129"/>
+      <c r="B15" s="129"/>
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="36"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="129" t="s">
         <v>36</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -13827,24 +13662,24 @@
       <c r="D16" s="35"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="128"/>
-      <c r="B17" s="128"/>
+      <c r="A17" s="129"/>
+      <c r="B17" s="129"/>
       <c r="C17" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="37"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="128"/>
-      <c r="B18" s="128"/>
+      <c r="A18" s="129"/>
+      <c r="B18" s="129"/>
       <c r="C18" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="36"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="128"/>
-      <c r="B19" s="128" t="s">
+      <c r="A19" s="129"/>
+      <c r="B19" s="129" t="s">
         <v>146</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -13853,24 +13688,24 @@
       <c r="D19" s="37"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="128"/>
-      <c r="B20" s="129"/>
+      <c r="A20" s="129"/>
+      <c r="B20" s="132"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="37"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="128"/>
-      <c r="B21" s="129"/>
+      <c r="A21" s="129"/>
+      <c r="B21" s="132"/>
       <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="36"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="128"/>
-      <c r="B22" s="128" t="s">
+      <c r="A22" s="129"/>
+      <c r="B22" s="129" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -13879,26 +13714,26 @@
       <c r="D22" s="37"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="128"/>
-      <c r="B23" s="128"/>
+      <c r="A23" s="129"/>
+      <c r="B23" s="129"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="37"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="128"/>
-      <c r="B24" s="128"/>
+      <c r="A24" s="129"/>
+      <c r="B24" s="129"/>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" s="36"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="126" t="s">
+      <c r="A25" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="130" t="s">
+      <c r="B25" s="133" t="s">
         <v>123</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -13907,24 +13742,24 @@
       <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="126"/>
-      <c r="B26" s="130"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="6" t="s">
         <v>39</v>
       </c>
       <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="126"/>
-      <c r="B27" s="130"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="126"/>
-      <c r="B28" s="130" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="133" t="s">
         <v>113</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -13933,24 +13768,24 @@
       <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="126"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="126"/>
-      <c r="B30" s="130"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="126"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="133" t="s">
         <v>143</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -13959,16 +13794,16 @@
       <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="126"/>
-      <c r="B32" s="130"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="126"/>
-      <c r="B33" s="130"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="6" t="s">
         <v>29</v>
       </c>
@@ -13976,11 +13811,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A24"/>
     <mergeCell ref="A25:A33"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -13993,6 +13823,11 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A24"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14013,41 +13848,41 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>157</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
     </row>
     <row r="2" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123" t="s">
         <v>159</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="121" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="123" t="s">
         <v>160</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="124"/>
+      <c r="I2" s="124"/>
+      <c r="J2" s="126"/>
     </row>
     <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="131"/>
+      <c r="A3" s="134"/>
       <c r="B3" s="31" t="s">
         <v>38</v>
       </c>
@@ -14215,33 +14050,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
         <v>163</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="30" t="s">
         <v>38</v>
       </c>
@@ -14365,89 +14200,89 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="66"/>
-      <c r="T1" s="66"/>
-      <c r="U1" s="66"/>
-      <c r="V1" s="66"/>
-      <c r="W1" s="66"/>
-      <c r="X1" s="66"/>
-      <c r="Y1" s="66"/>
-      <c r="Z1" s="66"/>
-      <c r="AA1" s="66"/>
-      <c r="AB1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
     </row>
     <row r="2" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="150" t="s">
+      <c r="B2" s="135" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="150" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="135" t="s">
         <v>248</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="124"/>
-      <c r="H2" s="150" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="126"/>
+      <c r="H2" s="135" t="s">
         <v>250</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="124"/>
-      <c r="K2" s="150" t="s">
+      <c r="I2" s="124"/>
+      <c r="J2" s="126"/>
+      <c r="K2" s="135" t="s">
         <v>252</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="124"/>
-      <c r="N2" s="150" t="s">
+      <c r="L2" s="124"/>
+      <c r="M2" s="126"/>
+      <c r="N2" s="135" t="s">
         <v>254</v>
       </c>
-      <c r="O2" s="122"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="150" t="s">
+      <c r="O2" s="124"/>
+      <c r="P2" s="126"/>
+      <c r="Q2" s="135" t="s">
         <v>256</v>
       </c>
-      <c r="R2" s="122"/>
-      <c r="S2" s="124"/>
-      <c r="T2" s="150" t="s">
+      <c r="R2" s="124"/>
+      <c r="S2" s="126"/>
+      <c r="T2" s="135" t="s">
         <v>258</v>
       </c>
-      <c r="U2" s="122"/>
-      <c r="V2" s="124"/>
-      <c r="W2" s="150" t="s">
+      <c r="U2" s="124"/>
+      <c r="V2" s="126"/>
+      <c r="W2" s="135" t="s">
         <v>260</v>
       </c>
-      <c r="X2" s="122"/>
-      <c r="Y2" s="124"/>
-      <c r="Z2" s="150" t="s">
+      <c r="X2" s="124"/>
+      <c r="Y2" s="126"/>
+      <c r="Z2" s="135" t="s">
         <v>262</v>
       </c>
-      <c r="AA2" s="122"/>
-      <c r="AB2" s="124"/>
+      <c r="AA2" s="124"/>
+      <c r="AB2" s="126"/>
     </row>
     <row r="3" spans="1:28" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
@@ -15469,49 +15304,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
-      <c r="K1" s="70"/>
-      <c r="L1" s="70"/>
-      <c r="M1" s="70"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
     </row>
     <row r="2" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71" t="s">
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71" t="s">
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
     </row>
     <row r="3" spans="1:13" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
@@ -15754,7 +15589,7 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
@@ -15765,240 +15600,245 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
     </row>
     <row r="2" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="152" t="s">
+      <c r="A2" s="137" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="152" t="s">
+      <c r="B2" s="137" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="153" t="s">
+      <c r="C2" s="59" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="152"/>
-      <c r="B3" s="152"/>
-      <c r="C3" s="154" t="s">
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="60" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="155" t="s">
+      <c r="A4" s="136" t="s">
         <v>247</v>
       </c>
-      <c r="B4" s="153" t="s">
+      <c r="B4" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="156"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="155"/>
-      <c r="B5" s="153" t="s">
+      <c r="A5" s="136"/>
+      <c r="B5" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="156"/>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="155"/>
-      <c r="B6" s="153" t="s">
+      <c r="A6" s="136"/>
+      <c r="B6" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C6" s="156"/>
+      <c r="C6" s="61"/>
     </row>
     <row r="7" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="155" t="s">
+      <c r="A7" s="136" t="s">
         <v>249</v>
       </c>
-      <c r="B7" s="153" t="s">
+      <c r="B7" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="156"/>
+      <c r="C7" s="61"/>
     </row>
     <row r="8" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="155"/>
-      <c r="B8" s="153" t="s">
+      <c r="A8" s="136"/>
+      <c r="B8" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="156"/>
+      <c r="C8" s="61"/>
     </row>
     <row r="9" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="155"/>
-      <c r="B9" s="153" t="s">
+      <c r="A9" s="136"/>
+      <c r="B9" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="156"/>
+      <c r="C9" s="61"/>
     </row>
     <row r="10" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="155" t="s">
+      <c r="A10" s="136" t="s">
         <v>251</v>
       </c>
-      <c r="B10" s="153" t="s">
+      <c r="B10" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="156"/>
+      <c r="C10" s="61"/>
     </row>
     <row r="11" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="155"/>
-      <c r="B11" s="153" t="s">
+      <c r="A11" s="136"/>
+      <c r="B11" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="156"/>
+      <c r="C11" s="61"/>
     </row>
     <row r="12" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="155"/>
-      <c r="B12" s="153" t="s">
+      <c r="A12" s="136"/>
+      <c r="B12" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C12" s="156"/>
+      <c r="C12" s="61"/>
     </row>
     <row r="13" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="155" t="s">
+      <c r="A13" s="136" t="s">
         <v>253</v>
       </c>
-      <c r="B13" s="153" t="s">
+      <c r="B13" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="156"/>
+      <c r="C13" s="61"/>
     </row>
     <row r="14" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="155"/>
-      <c r="B14" s="153" t="s">
+      <c r="A14" s="136"/>
+      <c r="B14" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="156"/>
+      <c r="C14" s="61"/>
     </row>
     <row r="15" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="155"/>
-      <c r="B15" s="153" t="s">
+      <c r="A15" s="136"/>
+      <c r="B15" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C15" s="156"/>
+      <c r="C15" s="61"/>
     </row>
     <row r="16" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="155" t="s">
+      <c r="A16" s="136" t="s">
         <v>255</v>
       </c>
-      <c r="B16" s="153" t="s">
+      <c r="B16" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="156"/>
+      <c r="C16" s="61"/>
     </row>
     <row r="17" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="155"/>
-      <c r="B17" s="153" t="s">
+      <c r="A17" s="136"/>
+      <c r="B17" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="156"/>
+      <c r="C17" s="61"/>
     </row>
     <row r="18" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="155"/>
-      <c r="B18" s="153" t="s">
+      <c r="A18" s="136"/>
+      <c r="B18" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C18" s="156"/>
+      <c r="C18" s="61"/>
     </row>
     <row r="19" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="155" t="s">
+      <c r="A19" s="136" t="s">
         <v>257</v>
       </c>
-      <c r="B19" s="153" t="s">
+      <c r="B19" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="156"/>
+      <c r="C19" s="61"/>
     </row>
     <row r="20" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="155"/>
-      <c r="B20" s="153" t="s">
+      <c r="A20" s="136"/>
+      <c r="B20" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="156"/>
+      <c r="C20" s="61"/>
     </row>
     <row r="21" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="155"/>
-      <c r="B21" s="153" t="s">
+      <c r="A21" s="136"/>
+      <c r="B21" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="156"/>
+      <c r="C21" s="61"/>
     </row>
     <row r="22" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="155" t="s">
+      <c r="A22" s="136" t="s">
         <v>259</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="156"/>
+      <c r="C22" s="61"/>
     </row>
     <row r="23" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="155"/>
-      <c r="B23" s="153" t="s">
+      <c r="A23" s="136"/>
+      <c r="B23" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="156"/>
+      <c r="C23" s="61"/>
     </row>
     <row r="24" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="155"/>
-      <c r="B24" s="153" t="s">
+      <c r="A24" s="136"/>
+      <c r="B24" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C24" s="156"/>
+      <c r="C24" s="61"/>
     </row>
     <row r="25" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="155" t="s">
+      <c r="A25" s="136" t="s">
         <v>261</v>
       </c>
-      <c r="B25" s="153" t="s">
+      <c r="B25" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C25" s="156"/>
+      <c r="C25" s="61"/>
     </row>
     <row r="26" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="155"/>
-      <c r="B26" s="153" t="s">
+      <c r="A26" s="136"/>
+      <c r="B26" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C26" s="156"/>
+      <c r="C26" s="61"/>
     </row>
     <row r="27" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="155"/>
-      <c r="B27" s="153" t="s">
+      <c r="A27" s="136"/>
+      <c r="B27" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="156"/>
+      <c r="C27" s="61"/>
     </row>
     <row r="28" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="136" t="s">
         <v>263</v>
       </c>
-      <c r="B28" s="153" t="s">
+      <c r="B28" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="156"/>
+      <c r="C28" s="61"/>
     </row>
     <row r="29" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="155"/>
-      <c r="B29" s="153" t="s">
+      <c r="A29" s="136"/>
+      <c r="B29" s="59" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="156"/>
+      <c r="C29" s="61"/>
     </row>
     <row r="30" spans="1:3" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="155"/>
-      <c r="B30" s="153" t="s">
+      <c r="A30" s="136"/>
+      <c r="B30" s="59" t="s">
         <v>151</v>
       </c>
-      <c r="C30" s="156"/>
+      <c r="C30" s="61"/>
     </row>
     <row r="31" spans="1:3" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
     <mergeCell ref="A28:A30"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
@@ -16006,11 +15846,6 @@
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
     <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <phoneticPr fontId="24" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16024,7 +15859,7 @@
   </sheetPr>
   <dimension ref="A1:D45"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22:B24"/>
     </sheetView>
   </sheetViews>
@@ -16034,21 +15869,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
     </row>
     <row r="2" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>44</v>
       </c>
       <c r="D2" s="8" t="s">
@@ -16056,16 +15891,16 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="25"/>
     </row>
     <row r="4" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -16074,24 +15909,24 @@
       <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="10" t="s">
         <v>39</v>
       </c>
       <c r="D5" s="26"/>
     </row>
     <row r="6" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="27"/>
     </row>
     <row r="7" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="83" t="s">
         <v>159</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -16100,24 +15935,24 @@
       <c r="D7" s="26"/>
     </row>
     <row r="8" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D9" s="27"/>
     </row>
     <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="83" t="s">
         <v>160</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -16126,26 +15961,26 @@
       <c r="D10" s="26"/>
     </row>
     <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D12" s="27"/>
     </row>
     <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="77" t="s">
+      <c r="A13" s="76" t="s">
         <v>168</v>
       </c>
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="83" t="s">
         <v>162</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -16154,24 +15989,24 @@
       <c r="D13" s="26"/>
     </row>
     <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D14" s="26"/>
     </row>
     <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="76"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="77"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
       <c r="D15" s="27"/>
     </row>
     <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="76"/>
-      <c r="B16" s="84" t="s">
+      <c r="A16" s="77"/>
+      <c r="B16" s="83" t="s">
         <v>163</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -16180,26 +16015,26 @@
       <c r="D16" s="26"/>
     </row>
     <row r="17" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
       <c r="D17" s="26"/>
     </row>
     <row r="18" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="83"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="82"/>
       <c r="C18" s="28" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="29"/>
     </row>
     <row r="19" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="126" t="s">
+      <c r="A19" s="130" t="s">
         <v>136</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="133" t="s">
         <v>103</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -16208,24 +16043,24 @@
       <c r="D19" s="26"/>
     </row>
     <row r="20" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="126"/>
-      <c r="B20" s="130"/>
+      <c r="A20" s="130"/>
+      <c r="B20" s="133"/>
       <c r="C20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D20" s="26"/>
     </row>
     <row r="21" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="126"/>
-      <c r="B21" s="130"/>
+      <c r="A21" s="130"/>
+      <c r="B21" s="133"/>
       <c r="C21" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D21" s="27"/>
     </row>
     <row r="22" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="126"/>
-      <c r="B22" s="130" t="s">
+      <c r="A22" s="130"/>
+      <c r="B22" s="133" t="s">
         <v>107</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -16234,24 +16069,24 @@
       <c r="D22" s="26"/>
     </row>
     <row r="23" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="126"/>
-      <c r="B23" s="130"/>
+      <c r="A23" s="130"/>
+      <c r="B23" s="133"/>
       <c r="C23" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D23" s="26"/>
     </row>
     <row r="24" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="126"/>
-      <c r="B24" s="130"/>
+      <c r="A24" s="130"/>
+      <c r="B24" s="133"/>
       <c r="C24" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D24" s="27"/>
     </row>
     <row r="25" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="126"/>
-      <c r="B25" s="130" t="s">
+      <c r="A25" s="130"/>
+      <c r="B25" s="133" t="s">
         <v>108</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -16260,24 +16095,24 @@
       <c r="D25" s="26"/>
     </row>
     <row r="26" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="126"/>
-      <c r="B26" s="130"/>
+      <c r="A26" s="130"/>
+      <c r="B26" s="133"/>
       <c r="C26" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="26"/>
     </row>
     <row r="27" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="126"/>
-      <c r="B27" s="130"/>
+      <c r="A27" s="130"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D27" s="27"/>
     </row>
     <row r="28" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="126"/>
-      <c r="B28" s="130" t="s">
+      <c r="A28" s="130"/>
+      <c r="B28" s="133" t="s">
         <v>164</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -16286,24 +16121,24 @@
       <c r="D28" s="26"/>
     </row>
     <row r="29" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="126"/>
-      <c r="B29" s="130"/>
+      <c r="A29" s="130"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D29" s="26"/>
     </row>
     <row r="30" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="126"/>
-      <c r="B30" s="130"/>
+      <c r="A30" s="130"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D30" s="27"/>
     </row>
     <row r="31" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="126"/>
-      <c r="B31" s="130" t="s">
+      <c r="A31" s="130"/>
+      <c r="B31" s="133" t="s">
         <v>165</v>
       </c>
       <c r="C31" s="6" t="s">
@@ -16312,24 +16147,24 @@
       <c r="D31" s="26"/>
     </row>
     <row r="32" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="126"/>
-      <c r="B32" s="130"/>
+      <c r="A32" s="130"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D32" s="26"/>
     </row>
     <row r="33" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="126"/>
-      <c r="B33" s="130"/>
+      <c r="A33" s="130"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D33" s="27"/>
     </row>
     <row r="34" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="126"/>
-      <c r="B34" s="130" t="s">
+      <c r="A34" s="130"/>
+      <c r="B34" s="133" t="s">
         <v>109</v>
       </c>
       <c r="C34" s="6" t="s">
@@ -16338,24 +16173,24 @@
       <c r="D34" s="26"/>
     </row>
     <row r="35" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="126"/>
-      <c r="B35" s="130"/>
+      <c r="A35" s="130"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="126"/>
-      <c r="B36" s="130"/>
+      <c r="A36" s="130"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D36" s="29"/>
     </row>
     <row r="37" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="126"/>
-      <c r="B37" s="130" t="s">
+      <c r="A37" s="130"/>
+      <c r="B37" s="133" t="s">
         <v>143</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -16364,24 +16199,24 @@
       <c r="D37" s="26"/>
     </row>
     <row r="38" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="126"/>
-      <c r="B38" s="130"/>
+      <c r="A38" s="130"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D38" s="26"/>
     </row>
     <row r="39" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="126"/>
-      <c r="B39" s="130"/>
+      <c r="A39" s="130"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D39" s="27"/>
     </row>
     <row r="40" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="126"/>
-      <c r="B40" s="130" t="s">
+      <c r="A40" s="130"/>
+      <c r="B40" s="133" t="s">
         <v>112</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -16390,24 +16225,24 @@
       <c r="D40" s="26"/>
     </row>
     <row r="41" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="126"/>
-      <c r="B41" s="130"/>
+      <c r="A41" s="130"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D41" s="26"/>
     </row>
     <row r="42" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="126"/>
-      <c r="B42" s="130"/>
+      <c r="A42" s="130"/>
+      <c r="B42" s="133"/>
       <c r="C42" s="6" t="s">
         <v>151</v>
       </c>
       <c r="D42" s="27"/>
     </row>
     <row r="43" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="126"/>
-      <c r="B43" s="130" t="s">
+      <c r="A43" s="130"/>
+      <c r="B43" s="133" t="s">
         <v>113</v>
       </c>
       <c r="C43" s="6" t="s">
@@ -16416,16 +16251,16 @@
       <c r="D43" s="26"/>
     </row>
     <row r="44" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="126"/>
-      <c r="B44" s="130"/>
+      <c r="A44" s="130"/>
+      <c r="B44" s="133"/>
       <c r="C44" s="6" t="s">
         <v>28</v>
       </c>
       <c r="D44" s="26"/>
     </row>
     <row r="45" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="126"/>
-      <c r="B45" s="130"/>
+      <c r="A45" s="130"/>
+      <c r="B45" s="133"/>
       <c r="C45" s="6" t="s">
         <v>151</v>
       </c>
@@ -16433,11 +16268,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B34:B36"/>
-    <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B43:B45"/>
-    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A12"/>
@@ -16454,6 +16284,11 @@
     <mergeCell ref="B25:B27"/>
     <mergeCell ref="B28:B30"/>
     <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B36"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B43:B45"/>
+    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16474,49 +16309,49 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="136" t="s">
+      <c r="A2" s="142" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="132" t="s">
+      <c r="B2" s="138" t="s">
         <v>170</v>
       </c>
-      <c r="C2" s="133"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="132" t="s">
+      <c r="C2" s="139"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="138" t="s">
         <v>171</v>
       </c>
-      <c r="F2" s="133"/>
-      <c r="G2" s="134"/>
-      <c r="H2" s="132" t="s">
+      <c r="F2" s="139"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="138" t="s">
         <v>172</v>
       </c>
-      <c r="I2" s="133"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="132" t="s">
+      <c r="I2" s="139"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="138" t="s">
         <v>173</v>
       </c>
-      <c r="L2" s="133"/>
-      <c r="M2" s="135"/>
+      <c r="L2" s="139"/>
+      <c r="M2" s="141"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="137"/>
+      <c r="A3" s="143"/>
       <c r="B3" s="23" t="s">
         <v>27</v>
       </c>
@@ -16737,33 +16572,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>177</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="126"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
@@ -16894,49 +16729,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="89" t="s">
         <v>180</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="I1" s="86"/>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="L1" s="86"/>
-      <c r="M1" s="86"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
     </row>
     <row r="2" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="64" t="s">
+      <c r="A2" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="121" t="s">
+      <c r="B2" s="123" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="122"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="121" t="s">
+      <c r="C2" s="124"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="F2" s="122"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="121" t="s">
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="123" t="s">
         <v>183</v>
       </c>
-      <c r="I2" s="122"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="121" t="s">
+      <c r="I2" s="124"/>
+      <c r="J2" s="125"/>
+      <c r="K2" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="L2" s="122"/>
-      <c r="M2" s="124"/>
+      <c r="L2" s="124"/>
+      <c r="M2" s="126"/>
     </row>
     <row r="3" spans="1:13" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="125"/>
+      <c r="A3" s="127"/>
       <c r="B3" s="10" t="s">
         <v>27</v>
       </c>
@@ -17125,33 +16960,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="147" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="139" t="s">
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="140"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="146"/>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="142"/>
+      <c r="A3" s="148"/>
       <c r="B3" s="21" t="s">
         <v>38</v>
       </c>
@@ -17319,47 +17154,47 @@
   </sheetPr>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:8" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="108" t="s">
+      <c r="B2" s="110" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="110" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="51"/>
       <c r="E3" s="51"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="83" t="s">
         <v>187</v>
       </c>
       <c r="C4" s="10" t="s">
@@ -17369,8 +17204,8 @@
       <c r="E4" s="51"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="76"/>
-      <c r="B5" s="83"/>
+      <c r="A5" s="77"/>
+      <c r="B5" s="82"/>
       <c r="C5" s="10" t="s">
         <v>28</v>
       </c>
@@ -17378,8 +17213,8 @@
       <c r="E5" s="51"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="76"/>
-      <c r="B6" s="79"/>
+      <c r="A6" s="77"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="10" t="s">
         <v>29</v>
       </c>
@@ -17387,8 +17222,8 @@
       <c r="E6" s="51"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="76"/>
-      <c r="B7" s="84" t="s">
+      <c r="A7" s="77"/>
+      <c r="B7" s="83" t="s">
         <v>171</v>
       </c>
       <c r="C7" s="10" t="s">
@@ -17398,8 +17233,8 @@
       <c r="E7" s="51"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="83"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="82"/>
       <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
@@ -17407,8 +17242,8 @@
       <c r="E8" s="51"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="76"/>
-      <c r="B9" s="79"/>
+      <c r="A9" s="77"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="10" t="s">
         <v>29</v>
       </c>
@@ -17416,8 +17251,8 @@
       <c r="E9" s="51"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="76"/>
-      <c r="B10" s="84" t="s">
+      <c r="A10" s="77"/>
+      <c r="B10" s="83" t="s">
         <v>172</v>
       </c>
       <c r="C10" s="10" t="s">
@@ -17427,8 +17262,8 @@
       <c r="E10" s="51"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="76"/>
-      <c r="B11" s="83"/>
+      <c r="A11" s="77"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
@@ -17436,8 +17271,8 @@
       <c r="E11" s="51"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="76"/>
-      <c r="B12" s="79"/>
+      <c r="A12" s="77"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="10" t="s">
         <v>29</v>
       </c>
@@ -17445,8 +17280,8 @@
       <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="76"/>
-      <c r="B13" s="84" t="s">
+      <c r="A13" s="77"/>
+      <c r="B13" s="83" t="s">
         <v>188</v>
       </c>
       <c r="C13" s="10" t="s">
@@ -17456,8 +17291,8 @@
       <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="76"/>
-      <c r="B14" s="83"/>
+      <c r="A14" s="77"/>
+      <c r="B14" s="82"/>
       <c r="C14" s="10" t="s">
         <v>28</v>
       </c>
@@ -17465,8 +17300,8 @@
       <c r="E14" s="51"/>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="68"/>
-      <c r="B15" s="79"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="10" t="s">
         <v>29</v>
       </c>
@@ -17474,10 +17309,10 @@
       <c r="E15" s="51"/>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="77" t="s">
+      <c r="A16" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="B16" s="84" t="s">
+      <c r="B16" s="83" t="s">
         <v>178</v>
       </c>
       <c r="C16" s="10" t="s">
@@ -17487,8 +17322,8 @@
       <c r="E16" s="51"/>
     </row>
     <row r="17" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="76"/>
-      <c r="B17" s="83"/>
+      <c r="A17" s="77"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="10" t="s">
         <v>28</v>
       </c>
@@ -17496,8 +17331,8 @@
       <c r="E17" s="51"/>
     </row>
     <row r="18" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="76"/>
-      <c r="B18" s="79"/>
+      <c r="A18" s="77"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="10" t="s">
         <v>29</v>
       </c>
@@ -17505,8 +17340,8 @@
       <c r="E18" s="51"/>
     </row>
     <row r="19" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="76"/>
-      <c r="B19" s="84" t="s">
+      <c r="A19" s="77"/>
+      <c r="B19" s="83" t="s">
         <v>179</v>
       </c>
       <c r="C19" s="10" t="s">
@@ -17516,8 +17351,8 @@
       <c r="E19" s="51"/>
     </row>
     <row r="20" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="76"/>
-      <c r="B20" s="83"/>
+      <c r="A20" s="77"/>
+      <c r="B20" s="82"/>
       <c r="C20" s="10" t="s">
         <v>28</v>
       </c>
@@ -17525,8 +17360,8 @@
       <c r="E20" s="51"/>
     </row>
     <row r="21" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="68"/>
-      <c r="B21" s="79"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="10" t="s">
         <v>29</v>
       </c>
@@ -17534,10 +17369,10 @@
       <c r="E21" s="51"/>
     </row>
     <row r="22" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="77" t="s">
+      <c r="A22" s="76" t="s">
         <v>189</v>
       </c>
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="83" t="s">
         <v>190</v>
       </c>
       <c r="C22" s="10" t="s">
@@ -17547,8 +17382,8 @@
       <c r="E22" s="51"/>
     </row>
     <row r="23" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="76"/>
-      <c r="B23" s="83"/>
+      <c r="A23" s="77"/>
+      <c r="B23" s="82"/>
       <c r="C23" s="10" t="s">
         <v>28</v>
       </c>
@@ -17556,8 +17391,8 @@
       <c r="E23" s="51"/>
     </row>
     <row r="24" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="79"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="80"/>
       <c r="C24" s="10" t="s">
         <v>29</v>
       </c>
@@ -17565,8 +17400,8 @@
       <c r="E24" s="51"/>
     </row>
     <row r="25" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="76"/>
-      <c r="B25" s="84" t="s">
+      <c r="A25" s="77"/>
+      <c r="B25" s="83" t="s">
         <v>182</v>
       </c>
       <c r="C25" s="10" t="s">
@@ -17576,8 +17411,8 @@
       <c r="E25" s="51"/>
     </row>
     <row r="26" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="76"/>
-      <c r="B26" s="83"/>
+      <c r="A26" s="77"/>
+      <c r="B26" s="82"/>
       <c r="C26" s="10" t="s">
         <v>28</v>
       </c>
@@ -17585,8 +17420,8 @@
       <c r="E26" s="51"/>
     </row>
     <row r="27" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="76"/>
-      <c r="B27" s="79"/>
+      <c r="A27" s="77"/>
+      <c r="B27" s="80"/>
       <c r="C27" s="10" t="s">
         <v>29</v>
       </c>
@@ -17594,8 +17429,8 @@
       <c r="E27" s="51"/>
     </row>
     <row r="28" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="76"/>
-      <c r="B28" s="84" t="s">
+      <c r="A28" s="77"/>
+      <c r="B28" s="83" t="s">
         <v>183</v>
       </c>
       <c r="C28" s="10" t="s">
@@ -17605,8 +17440,8 @@
       <c r="E28" s="51"/>
     </row>
     <row r="29" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="76"/>
-      <c r="B29" s="83"/>
+      <c r="A29" s="77"/>
+      <c r="B29" s="82"/>
       <c r="C29" s="10" t="s">
         <v>28</v>
       </c>
@@ -17614,8 +17449,8 @@
       <c r="E29" s="51"/>
     </row>
     <row r="30" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="76"/>
-      <c r="B30" s="79"/>
+      <c r="A30" s="77"/>
+      <c r="B30" s="80"/>
       <c r="C30" s="10" t="s">
         <v>29</v>
       </c>
@@ -17623,8 +17458,8 @@
       <c r="E30" s="51"/>
     </row>
     <row r="31" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="76"/>
-      <c r="B31" s="84" t="s">
+      <c r="A31" s="77"/>
+      <c r="B31" s="83" t="s">
         <v>184</v>
       </c>
       <c r="C31" s="10" t="s">
@@ -17634,8 +17469,8 @@
       <c r="E31" s="51"/>
     </row>
     <row r="32" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="76"/>
-      <c r="B32" s="83"/>
+      <c r="A32" s="77"/>
+      <c r="B32" s="82"/>
       <c r="C32" s="10" t="s">
         <v>28</v>
       </c>
@@ -17643,8 +17478,8 @@
       <c r="E32" s="51"/>
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="76"/>
-      <c r="B33" s="85"/>
+      <c r="A33" s="77"/>
+      <c r="B33" s="84"/>
       <c r="C33" s="20" t="s">
         <v>29</v>
       </c>
@@ -17652,10 +17487,10 @@
       <c r="E33" s="51"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="77" t="s">
+      <c r="A34" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="83" t="s">
         <v>36</v>
       </c>
       <c r="C34" s="18" t="s">
@@ -17665,8 +17500,8 @@
       <c r="E34" s="51"/>
     </row>
     <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="76"/>
-      <c r="B35" s="83"/>
+      <c r="A35" s="77"/>
+      <c r="B35" s="82"/>
       <c r="C35" s="18" t="s">
         <v>39</v>
       </c>
@@ -17674,8 +17509,8 @@
       <c r="E35" s="51"/>
     </row>
     <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="76"/>
-      <c r="B36" s="79"/>
+      <c r="A36" s="77"/>
+      <c r="B36" s="80"/>
       <c r="C36" s="18" t="s">
         <v>29</v>
       </c>
@@ -17683,8 +17518,8 @@
       <c r="E36" s="51"/>
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="76"/>
-      <c r="B37" s="84" t="s">
+      <c r="A37" s="77"/>
+      <c r="B37" s="83" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -17694,8 +17529,8 @@
       <c r="E37" s="51"/>
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="76"/>
-      <c r="B38" s="83"/>
+      <c r="A38" s="77"/>
+      <c r="B38" s="82"/>
       <c r="C38" s="18" t="s">
         <v>28</v>
       </c>
@@ -17703,8 +17538,8 @@
       <c r="E38" s="51"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="68"/>
-      <c r="B39" s="79"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="80"/>
       <c r="C39" s="18" t="s">
         <v>29</v>
       </c>
@@ -17719,6 +17554,12 @@
     <protectedRange sqref="D3:E39" name="区域1_1_1_1_1_1"/>
   </protectedRanges>
   <mergeCells count="20">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A22:A33"/>
+    <mergeCell ref="C2:C3"/>
     <mergeCell ref="A34:A39"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B6"/>
@@ -17733,12 +17574,6 @@
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B36"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A15"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A22:A33"/>
-    <mergeCell ref="C2:C3"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17756,17 +17591,17 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>192</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="144"/>
-      <c r="H1" s="144"/>
-      <c r="I1" s="145"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+      <c r="I1" s="151"/>
     </row>
     <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
@@ -17957,7 +17792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-3900-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -17967,21 +17802,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="144"/>
-      <c r="G1" s="145"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="151"/>
     </row>
     <row r="2" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="146" t="s">
+      <c r="A2" s="152" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="75" t="s">
         <v>200</v>
       </c>
       <c r="C2" s="18" t="s">
@@ -17990,28 +17825,28 @@
       <c r="D2" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="E2" s="72" t="s">
+      <c r="E2" s="75" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="72" t="s">
+      <c r="F2" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="G2" s="153" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="146"/>
-      <c r="B3" s="72"/>
+      <c r="A3" s="152"/>
+      <c r="B3" s="75"/>
       <c r="C3" s="18" t="s">
         <v>201</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="147"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="153"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="51"/>
@@ -18136,14 +17971,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="143" t="s">
+      <c r="A1" s="149" t="s">
         <v>202</v>
       </c>
-      <c r="B1" s="144"/>
-      <c r="C1" s="144"/>
-      <c r="D1" s="144"/>
-      <c r="E1" s="144"/>
-      <c r="F1" s="145"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
     </row>
     <row r="2" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="17" t="s">
@@ -18320,33 +18155,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
@@ -18544,40 +18379,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="66"/>
       <c r="K2" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="148"/>
+      <c r="A3" s="154"/>
       <c r="B3" s="14" t="s">
         <v>209</v>
       </c>
@@ -18638,40 +18473,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="66"/>
       <c r="K2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>209</v>
       </c>
@@ -18728,40 +18563,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="63" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="60" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="66"/>
       <c r="K2" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="68"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="10" t="s">
         <v>209</v>
       </c>
@@ -18818,30 +18653,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="155" t="s">
         <v>219</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="B1" s="155"/>
+      <c r="C1" s="155"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="128" t="s">
+      <c r="A2" s="129" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128"/>
-      <c r="E2" s="128" t="s">
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="F2" s="128"/>
-      <c r="G2" s="128"/>
-      <c r="H2" s="128"/>
+      <c r="F2" s="129"/>
+      <c r="G2" s="129"/>
+      <c r="H2" s="129"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
@@ -18897,14 +18732,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="69" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -18964,33 +18799,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
@@ -19147,33 +18982,33 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="24.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
     </row>
     <row r="3" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="71"/>
+      <c r="A3" s="74"/>
       <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
@@ -19361,33 +19196,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="72" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
     </row>
     <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="71" t="s">
+      <c r="B2" s="74" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="72" t="s">
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="75" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="72"/>
+      <c r="A3" s="75"/>
       <c r="B3" s="18" t="s">
         <v>38</v>
       </c>
